--- a/data/hotels_by_city/Denver/Denver_shard_76.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_76.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="738">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g29144-d119984-Reviews-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
   </si>
   <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Extended-Stay-America-Denver-Aurora-South.h119229.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2182 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r583877767-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>119984</t>
+  </si>
+  <si>
+    <t>583877767</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here</t>
+  </si>
+  <si>
+    <t>On my trip Colorado to move my mother to Alabama, we decided to stay here for a couple nights after here household goods were packed up.  We arrived late and we were tired.  After checking in, I went to help my mother into her room and was almost knocked out by the marijuana smell.  We fabreezed and lysoled the place enough o stay in for a night.  Once we completed that, we tried to turn on her TV, but there was nothing but static and the remote was missing.  I looked at where the cable was plugged in and there was no cable to the wall.  I let the front desk know about both situations and they knew about both and did nothing about it.  Now my room I have attached pictures.  Also there was a marijuana smell.  I will not stay here again and suggest that you don't either. Photos are not uploading, but mold in the bathroom, stains on the floor, and cigarette burns on the bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>On my trip Colorado to move my mother to Alabama, we decided to stay here for a couple nights after here household goods were packed up.  We arrived late and we were tired.  After checking in, I went to help my mother into her room and was almost knocked out by the marijuana smell.  We fabreezed and lysoled the place enough o stay in for a night.  Once we completed that, we tried to turn on her TV, but there was nothing but static and the remote was missing.  I looked at where the cable was plugged in and there was no cable to the wall.  I let the front desk know about both situations and they knew about both and did nothing about it.  Now my room I have attached pictures.  Also there was a marijuana smell.  I will not stay here again and suggest that you don't either. Photos are not uploading, but mold in the bathroom, stains on the floor, and cigarette burns on the bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r581424931-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>581424931</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Easy place to relax</t>
+  </si>
+  <si>
+    <t>The hotel and the hotel staff were exceptional and kind. My room was clean and ready when I got there for check-in. The grab and go breakfast was muffins and granola bars. Something quick that I grabbed on the way to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>The hotel and the hotel staff were exceptional and kind. My room was clean and ready when I got there for check-in. The grab and go breakfast was muffins and granola bars. Something quick that I grabbed on the way to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r569785147-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>569785147</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay and will be here for a couple more weeks.! The woman up front have been pleasant to me being I was first here paying for somebody else’s room now I’m here for business and I’m always coming in with my brain scattered all over the place and they have been awesome...I look forward to visiting this place the next time I have to be here for my job...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded March 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2018</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay and will be here for a couple more weeks.! The woman up front have been pleasant to me being I was first here paying for somebody else’s room now I’m here for business and I’m always coming in with my brain scattered all over the place and they have been awesome...I look forward to visiting this place the next time I have to be here for my job...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r527445029-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>527445029</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>From the terrible customer service to the holes in the walls in the room, I only stayed just long enough to sleep a few hours. My sis was in the hospital nearby and I booked the day before staying, supposedly saving 10%. Of course they didn't have my reservation, "couldn't get me the same deal" and blah blah blah. I only didn't complain or argue my case because there was a line behind me and I was so tired! I wrote to the manager next day, no response. The stairwells were filthy where my room was, 226, and there were needles outside of my doorway.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>From the terrible customer service to the holes in the walls in the room, I only stayed just long enough to sleep a few hours. My sis was in the hospital nearby and I booked the day before staying, supposedly saving 10%. Of course they didn't have my reservation, "couldn't get me the same deal" and blah blah blah. I only didn't complain or argue my case because there was a line behind me and I was so tired! I wrote to the manager next day, no response. The stairwells were filthy where my room was, 226, and there were needles outside of my doorway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r525798329-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>525798329</t>
+  </si>
+  <si>
+    <t>09/19/2017</t>
+  </si>
+  <si>
+    <t>Worst customer service I've ever experienced</t>
+  </si>
+  <si>
+    <t>The worst customer service...hotel experience ever. Still trying to deal with it and we stayed there 3 nights ago. We had called during the day around 3pm to let them know we would be showing up around midnight - 12:30am. We showed up at 12:15pm Front office was locked. No one there. Took close to 20 minutes for the front desk person to open the door to let us know...the hotel was overbooked. We didn't have our 2 rooms. They said they would get us rooms at another Extended Stay America. We drove there...no one waiting at the front desk there. Took another 10 minutes for a woman to come to the desk. And tell us...it'd take at least 30 minutes or so to get our rooms. It took another hour and 20 minutes. We did not get into our rooms 'til 2am. The front desk person has an attitude...was abrupt. When she said it'd take awhile to get our rooms...I said "we're tired...we just want to get into our rooms, we have a 8am flight...we'll have to get up at 5:30am to return our rent car". I was frustrated, tired. She said.."don't raise your voice to me". I had not raised my voice. They since said they'd reimburse us for our troubles. And now the mgr (Shalimar) has changed her story and only reimbursing us for one room. They told Priceline who we booked through we had used the...The worst customer service...hotel experience ever. Still trying to deal with it and we stayed there 3 nights ago. We had called during the day around 3pm to let them know we would be showing up around midnight - 12:30am. We showed up at 12:15pm Front office was locked. No one there. Took close to 20 minutes for the front desk person to open the door to let us know...the hotel was overbooked. We didn't have our 2 rooms. They said they would get us rooms at another Extended Stay America. We drove there...no one waiting at the front desk there. Took another 10 minutes for a woman to come to the desk. And tell us...it'd take at least 30 minutes or so to get our rooms. It took another hour and 20 minutes. We did not get into our rooms 'til 2am. The front desk person has an attitude...was abrupt. When she said it'd take awhile to get our rooms...I said "we're tired...we just want to get into our rooms, we have a 8am flight...we'll have to get up at 5:30am to return our rent car". I was frustrated, tired. She said.."don't raise your voice to me". I had not raised my voice. They since said they'd reimburse us for our troubles. And now the mgr (Shalimar) has changed her story and only reimbursing us for one room. They told Priceline who we booked through we had used the one room? Their were 3 of us. 2 rooms. We travel a lot because of our work. This is the second time I've had problems with Extended Stay America. Must be the transcient employee thing...bad attitudes. Don't care how they treat the customers. Sorry, I used Priceline and Extended Stay America.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded September 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2017</t>
+  </si>
+  <si>
+    <t>The worst customer service...hotel experience ever. Still trying to deal with it and we stayed there 3 nights ago. We had called during the day around 3pm to let them know we would be showing up around midnight - 12:30am. We showed up at 12:15pm Front office was locked. No one there. Took close to 20 minutes for the front desk person to open the door to let us know...the hotel was overbooked. We didn't have our 2 rooms. They said they would get us rooms at another Extended Stay America. We drove there...no one waiting at the front desk there. Took another 10 minutes for a woman to come to the desk. And tell us...it'd take at least 30 minutes or so to get our rooms. It took another hour and 20 minutes. We did not get into our rooms 'til 2am. The front desk person has an attitude...was abrupt. When she said it'd take awhile to get our rooms...I said "we're tired...we just want to get into our rooms, we have a 8am flight...we'll have to get up at 5:30am to return our rent car". I was frustrated, tired. She said.."don't raise your voice to me". I had not raised my voice. They since said they'd reimburse us for our troubles. And now the mgr (Shalimar) has changed her story and only reimbursing us for one room. They told Priceline who we booked through we had used the...The worst customer service...hotel experience ever. Still trying to deal with it and we stayed there 3 nights ago. We had called during the day around 3pm to let them know we would be showing up around midnight - 12:30am. We showed up at 12:15pm Front office was locked. No one there. Took close to 20 minutes for the front desk person to open the door to let us know...the hotel was overbooked. We didn't have our 2 rooms. They said they would get us rooms at another Extended Stay America. We drove there...no one waiting at the front desk there. Took another 10 minutes for a woman to come to the desk. And tell us...it'd take at least 30 minutes or so to get our rooms. It took another hour and 20 minutes. We did not get into our rooms 'til 2am. The front desk person has an attitude...was abrupt. When she said it'd take awhile to get our rooms...I said "we're tired...we just want to get into our rooms, we have a 8am flight...we'll have to get up at 5:30am to return our rent car". I was frustrated, tired. She said.."don't raise your voice to me". I had not raised my voice. They since said they'd reimburse us for our troubles. And now the mgr (Shalimar) has changed her story and only reimbursing us for one room. They told Priceline who we booked through we had used the one room? Their were 3 of us. 2 rooms. We travel a lot because of our work. This is the second time I've had problems with Extended Stay America. Must be the transcient employee thing...bad attitudes. Don't care how they treat the customers. Sorry, I used Priceline and Extended Stay America.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r509908838-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>509908838</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Would not stay again</t>
+  </si>
+  <si>
+    <t>We were not happy with our stay. The room was supposed to be a never smoked in room, however it reiked of smoke. The TV did not work. The reservation was for four people, however there were only two towels, two washcloths and two cups in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>We were not happy with our stay. The room was supposed to be a never smoked in room, however it reiked of smoke. The TV did not work. The reservation was for four people, however there were only two towels, two washcloths and two cups in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r505341238-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>505341238</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Stranded in Denver</t>
+  </si>
+  <si>
+    <t>We were stranded at the Denver airport due to severe Thunderstorms. The only room we could find was Extended Stay. The staff was wonderful and we were able to get some much needed rest. The room was wonderful even had kitchen. Would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>We were stranded at the Denver airport due to severe Thunderstorms. The only room we could find was Extended Stay. The staff was wonderful and we were able to get some much needed rest. The room was wonderful even had kitchen. Would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r503347223-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>503347223</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Disgusting place.</t>
+  </si>
+  <si>
+    <t>No ice machine. I signed waiver for non-smoking. My sheet had a cigarette burn. Derelict's stay here it's gross. Dogs everywhere. I can't wait till wake up and get out of here. Don't stay here. Terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>No ice machine. I signed waiver for non-smoking. My sheet had a cigarette burn. Derelict's stay here it's gross. Dogs everywhere. I can't wait till wake up and get out of here. Don't stay here. Terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r503055861-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>503055861</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>working professional in town on business</t>
+  </si>
+  <si>
+    <t>Other than the noisy pack of dogs locked in a bathroom next door to me during 6days of my stay and the loud constant groaning and struggling to work hot water heater which made showers uncomfortable and cumbersome with the hot to cold up and down temps during shower, and the inconvenience of not having my kitchen outlet sockets work to plug toaster, coffeemaker or electric skillet into. had to improvise because i didnt want to complain as a Manager for Choice Hotels I do understand that every little occurrence cant be at fault or under the control of staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Other than the noisy pack of dogs locked in a bathroom next door to me during 6days of my stay and the loud constant groaning and struggling to work hot water heater which made showers uncomfortable and cumbersome with the hot to cold up and down temps during shower, and the inconvenience of not having my kitchen outlet sockets work to plug toaster, coffeemaker or electric skillet into. had to improvise because i didnt want to complain as a Manager for Choice Hotels I do understand that every little occurrence cant be at fault or under the control of staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r496982195-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>496982195</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not for business travelers </t>
+  </si>
+  <si>
+    <t>I save one stars for the truly deserving. Over 200 reviews and this is only my third one. Not all is because of lack of cleanliness. Which it was. Partly is the fact they jacked up the price of this horrid place. I'm sick of all hotels doing this. Almost everywhere else was full, so I got stuck here. Sight unseen but it was here or Motel 6 downtown. Can't believe I'm saying I chose wrong. Huge stains on the carpet. Noisy neighbors. I got the handicapped room, and the shower is in need of a remodel. The GM here comments on all reviews, but doesn't fix the problems. Bad pillows and towels.  Breakfast is store bought muffins and granola bars. Not even OJ.  If the price was half, I would have given a 2. What really ticked me off was a card stating the manager had personally signed off on the cleanliness. I left that card with a special note right on the stain.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>I save one stars for the truly deserving. Over 200 reviews and this is only my third one. Not all is because of lack of cleanliness. Which it was. Partly is the fact they jacked up the price of this horrid place. I'm sick of all hotels doing this. Almost everywhere else was full, so I got stuck here. Sight unseen but it was here or Motel 6 downtown. Can't believe I'm saying I chose wrong. Huge stains on the carpet. Noisy neighbors. I got the handicapped room, and the shower is in need of a remodel. The GM here comments on all reviews, but doesn't fix the problems. Bad pillows and towels.  Breakfast is store bought muffins and granola bars. Not even OJ.  If the price was half, I would have given a 2. What really ticked me off was a card stating the manager had personally signed off on the cleanliness. I left that card with a special note right on the stain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r496059502-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>496059502</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Review of Aurora South</t>
+  </si>
+  <si>
+    <t>I would not stay at this location.  I had to obtain a different room upon my check-in.  I had prepaid for the entire stay; thus, went to the store and purchased cleaning supplies to clean the second room.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>I would not stay at this location.  I had to obtain a different room upon my check-in.  I had prepaid for the entire stay; thus, went to the store and purchased cleaning supplies to clean the second room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r495376061-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>495376061</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights and it was okay.</t>
+  </si>
+  <si>
+    <t>The room was mostly clean and there was a hot shower with water pressure. I paid $100 for a king bed suite. The service was okay and nobody bothered my truck and trailer in the parking lot. The over-all place could use an update, but it'll definitely work in a pinch.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2017</t>
+  </si>
+  <si>
+    <t>The room was mostly clean and there was a hot shower with water pressure. I paid $100 for a king bed suite. The service was okay and nobody bothered my truck and trailer in the parking lot. The over-all place could use an update, but it'll definitely work in a pinch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r493189939-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>493189939</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Disgusting place, Stay away</t>
+  </si>
+  <si>
+    <t>Horrible place.  Room smelled like sweat and urine, carpet dirty stains everywhere, bath tub filthy.  Scary characters hanging out in front smoking and loitering.  This is a place where people stay for a week or longer so it looks like a dirty rehab center.  I made a big mistake, hope you don't!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Horrible place.  Room smelled like sweat and urine, carpet dirty stains everywhere, bath tub filthy.  Scary characters hanging out in front smoking and loitering.  This is a place where people stay for a week or longer so it looks like a dirty rehab center.  I made a big mistake, hope you don't!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r492223365-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>492223365</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Poor service</t>
+  </si>
+  <si>
+    <t>Over the phone I was told this hotel accepted CLC, upon arrival the front desk stated they did not accept CLC and that she attempted to contact me prior to arrival. After being forced to use my personal card me and a partner stayed 3 nights. His A/C quit and his room was a mess. The beds are stiff and rather cheap. This hotel is poor quality for the excessive rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded June 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2017</t>
+  </si>
+  <si>
+    <t>Over the phone I was told this hotel accepted CLC, upon arrival the front desk stated they did not accept CLC and that she attempted to contact me prior to arrival. After being forced to use my personal card me and a partner stayed 3 nights. His A/C quit and his room was a mess. The beds are stiff and rather cheap. This hotel is poor quality for the excessive rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r491763892-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>491763892</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Do not stay here!!</t>
+  </si>
+  <si>
+    <t>The carpet was filthy, shower pipes made noise when used, non-smoking room reaked of smoke, no trash can, microwave had not been cleaned well, the area was fine, but the quality of these hotel not good. Do not stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>The carpet was filthy, shower pipes made noise when used, non-smoking room reaked of smoke, no trash can, microwave had not been cleaned well, the area was fine, but the quality of these hotel not good. Do not stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r471870263-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>471870263</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Ok hotel</t>
+  </si>
+  <si>
+    <t>Nice helpful staff. Room little dated, but ok. Near public train for downtown travel. Several nice restaurants next door. Laundry facilities are available. Coin operated machines. No one bothered us. Felt safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded April 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2017</t>
+  </si>
+  <si>
+    <t>Nice helpful staff. Room little dated, but ok. Near public train for downtown travel. Several nice restaurants next door. Laundry facilities are available. Coin operated machines. No one bothered us. Felt safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r467309761-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>467309761</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Review of one night stay</t>
+  </si>
+  <si>
+    <t>Parking lot had litter.  No hangars in room.  One bedside light didn't work.  Continental breakfast was granola bars, coffee and hot chocolate.  None of the muffins shown on the advertisement--and this was at 8:15... well before the end of breakfast time.  Bed was a bit on the hard side.  Backroom was excellent.  Kitchen was good.  carpet looked worn and presented an unappealing appearance when entering the room.  Not a good value for the money</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r430942541-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>430942541</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>bed bugs, Blood? on sheet, hair on bed and dirty on all of counters. TERRIBLE!!</t>
+  </si>
+  <si>
+    <t>First checked in - just staying the night for an interview so figured i'd cheap out and found this on priceline. Place was sketchy but its a 2 star hotel so I figured was par for the course. However on my bed there was a bed bug crawling around. When i called the front office they asked "If i was sure it was a bed bug?" Tried to get to the hotel across the street that is nicer but all booked up. So they switched me to another room (was too late in the night to find a new room as i had an early interview the next day and then was leaving colorado).After some hassle moved me to another room with dirt every, smelled like stale cigarettes and hair on the bed. I dead-bolt locked the door b/c this place was shady. Slept with all my clothes on and got out first thing. WOULD NEVER STAY THERE AGAIN!!!One posiitve - their customer service was very nice and reasonable and said they will further look into this.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>First checked in - just staying the night for an interview so figured i'd cheap out and found this on priceline. Place was sketchy but its a 2 star hotel so I figured was par for the course. However on my bed there was a bed bug crawling around. When i called the front office they asked "If i was sure it was a bed bug?" Tried to get to the hotel across the street that is nicer but all booked up. So they switched me to another room (was too late in the night to find a new room as i had an early interview the next day and then was leaving colorado).After some hassle moved me to another room with dirt every, smelled like stale cigarettes and hair on the bed. I dead-bolt locked the door b/c this place was shady. Slept with all my clothes on and got out first thing. WOULD NEVER STAY THERE AGAIN!!!One posiitve - their customer service was very nice and reasonable and said they will further look into this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r421034051-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>421034051</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Ghetto Fabulous! Old, dirty and full of dirtbags.</t>
+  </si>
+  <si>
+    <t>Booked 4 days here. Checked out the next morning and went to the Renaissance for the rest of the trip. The room smelled like an old ashtray, carpet was dirty, the top of the short fridge was filthy. I should have not waited to find a room until the last minute, do yourself a favor and book a decent hotel early. If you need to find crack and/or a crack ho at your hotel then this place is for you.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r413570740-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>413570740</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Dirty floor</t>
+  </si>
+  <si>
+    <t>Stayed one night.  Never again!!!  The carpet was nasty.   The floor was sticky.  Gross!!!I never took my socks off.  Don't stay here.  Not enough towels for two. No shampoo☹️☹️☹️☹️☹️☹️☹️☹️Not great breakfast.  Had to ask for muffinsNo fruit.  I have stayed at others.  Very disappointed MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Stayed one night.  Never again!!!  The carpet was nasty.   The floor was sticky.  Gross!!!I never took my socks off.  Don't stay here.  Not enough towels for two. No shampoo☹️☹️☹️☹️☹️☹️☹️☹️Not great breakfast.  Had to ask for muffinsNo fruit.  I have stayed at others.  Very disappointed More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r406360490-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>406360490</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>I am a college student and I have served in the military, so I'm used to staying in some dirty places on a budget. However, I had to cancel my room AFTER checking in due to some seriously gross things I found in the room.The bed in the room had a cigarette burn in the comforter, sheets, and BED! Even though hotel says no smoking inside the rooms or around the property, there was cigarette butts everywhere on the grounds. My room had a faint odor of marijuana as if someone recently smoked it in there. Furthermore, the bathroom didn't appear it had been cleaned from the last person who was there.The front desk person was EXTREMELY nice. I had no issues there. She provided us another room after I brought this to her attention. However, the second room had hair all over the sheets (thick globs of hair) as well as in the bathtub and floor. It forced me to cancel my reservation and move to another hotel. Also, the "free breakfast" is a grab n' go breakfast which consists of some small snacks. There are also TONS of kids just running around the parking lots with little to no parental supervision. The rooms are small, very small, and there is no view. Please please save your money and find another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I am a college student and I have served in the military, so I'm used to staying in some dirty places on a budget. However, I had to cancel my room AFTER checking in due to some seriously gross things I found in the room.The bed in the room had a cigarette burn in the comforter, sheets, and BED! Even though hotel says no smoking inside the rooms or around the property, there was cigarette butts everywhere on the grounds. My room had a faint odor of marijuana as if someone recently smoked it in there. Furthermore, the bathroom didn't appear it had been cleaned from the last person who was there.The front desk person was EXTREMELY nice. I had no issues there. She provided us another room after I brought this to her attention. However, the second room had hair all over the sheets (thick globs of hair) as well as in the bathtub and floor. It forced me to cancel my reservation and move to another hotel. Also, the "free breakfast" is a grab n' go breakfast which consists of some small snacks. There are also TONS of kids just running around the parking lots with little to no parental supervision. The rooms are small, very small, and there is no view. Please please save your money and find another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r387477853-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>387477853</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Softball</t>
+  </si>
+  <si>
+    <t>We were to try to check in around 430 pm and we had to wait to see if the room was clean or not  when we were waiting for room two other guest came drunk and talking bad and using bad language and desk person was laughing with guest         when we went to room and walk out room smell so bad not cleaned it's not for family stay I wouldn't recommend a family to stay</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r386613583-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>386613583</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Vacation nightmare</t>
+  </si>
+  <si>
+    <t>This was the worst place I have ever stayed. For a non smoking room it smelled as though there was always a cigarette burning. The bathroom constantly had water leaking from the upstairs. So bad I had to use the only towel that was available to keep it from flooding into the main room. When I brought this to the attention of the front desk they just said they'd check on it. No apologies or anything. I was there with my husband but only one pillow was provided and it looked as though it was designed for a two year old. The closet had a couple shelves so we put our bags on them and went out for a few hours. When we came back our bags were on the floor along with the shelves. Mind you the bags were empty because there were actually decent dressers. However all our clothes were permiated by stale cigarette smell. The carpet was stain filled and did not appear to have seen a vacuum in awhile. We did not walk around barefoot at all. It was convenient to have a full sized refrigerator and kitchen area but I was scared to even attempt using the stove due to all the build up on it.
+We spent as little time as possible in the room due to the smell. Management never came in to check the leak and we left after two nights for...This was the worst place I have ever stayed. For a non smoking room it smelled as though there was always a cigarette burning. The bathroom constantly had water leaking from the upstairs. So bad I had to use the only towel that was available to keep it from flooding into the main room. When I brought this to the attention of the front desk they just said they'd check on it. No apologies or anything. I was there with my husband but only one pillow was provided and it looked as though it was designed for a two year old. The closet had a couple shelves so we put our bags on them and went out for a few hours. When we came back our bags were on the floor along with the shelves. Mind you the bags were empty because there were actually decent dressers. However all our clothes were permiated by stale cigarette smell. The carpet was stain filled and did not appear to have seen a vacuum in awhile. We did not walk around barefoot at all. It was convenient to have a full sized refrigerator and kitchen area but I was scared to even attempt using the stove due to all the build up on it.We spent as little time as possible in the room due to the smell. Management never came in to check the leak and we left after two nights for an easier accessible and better maintained location.If it's not apparent, we will never come to this location again and have made sure to let all friends and family know.The saddest part about this stay was that if management cared about the rooms at all this could actually be a very nice place. Unfortunately, I don't see that this will change anytime soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the worst place I have ever stayed. For a non smoking room it smelled as though there was always a cigarette burning. The bathroom constantly had water leaking from the upstairs. So bad I had to use the only towel that was available to keep it from flooding into the main room. When I brought this to the attention of the front desk they just said they'd check on it. No apologies or anything. I was there with my husband but only one pillow was provided and it looked as though it was designed for a two year old. The closet had a couple shelves so we put our bags on them and went out for a few hours. When we came back our bags were on the floor along with the shelves. Mind you the bags were empty because there were actually decent dressers. However all our clothes were permiated by stale cigarette smell. The carpet was stain filled and did not appear to have seen a vacuum in awhile. We did not walk around barefoot at all. It was convenient to have a full sized refrigerator and kitchen area but I was scared to even attempt using the stove due to all the build up on it.
+We spent as little time as possible in the room due to the smell. Management never came in to check the leak and we left after two nights for...This was the worst place I have ever stayed. For a non smoking room it smelled as though there was always a cigarette burning. The bathroom constantly had water leaking from the upstairs. So bad I had to use the only towel that was available to keep it from flooding into the main room. When I brought this to the attention of the front desk they just said they'd check on it. No apologies or anything. I was there with my husband but only one pillow was provided and it looked as though it was designed for a two year old. The closet had a couple shelves so we put our bags on them and went out for a few hours. When we came back our bags were on the floor along with the shelves. Mind you the bags were empty because there were actually decent dressers. However all our clothes were permiated by stale cigarette smell. The carpet was stain filled and did not appear to have seen a vacuum in awhile. We did not walk around barefoot at all. It was convenient to have a full sized refrigerator and kitchen area but I was scared to even attempt using the stove due to all the build up on it.We spent as little time as possible in the room due to the smell. Management never came in to check the leak and we left after two nights for an easier accessible and better maintained location.If it's not apparent, we will never come to this location again and have made sure to let all friends and family know.The saddest part about this stay was that if management cared about the rooms at all this could actually be a very nice place. Unfortunately, I don't see that this will change anytime soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r381644065-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>381644065</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Not a place for families</t>
+  </si>
+  <si>
+    <t>Stayed here for one night with my family, a party of 6 with two rooms. While the check in staff were friendly and efficient,  the facility left a lot to desire. Alot of locals use this as a place to live, and we were surprised at the number of people just hanging around outside of rooms until all hours of the early morning.  The rooms were very small and had no soap, shampoo or other amenities. The bedding was very cheap and the room had a musty odor. My first time staying at an Extended Stay and the last. We really didn't feel safe.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r368751615-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>368751615</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Front desk (Tracy)</t>
+  </si>
+  <si>
+    <t>There isn't enough words to describe how wonderful Tracy is in the front office. Anytime you have a question or need something she is commented to filling your needs. She is easy to talk too and is a joy to have a good laugh with. Tracy makes you feel like family here and that is a very important to me and personally being in customer service for over 20 years this is a very great trait to have. I also want to thank the wonderful house keeping staff as well. They also make you feel like family. Gelynn the property's maintains man is also a joy to be around. If you have any questions or concerns about your room he always makes time to address any issues. I would recommend this property site to all my friends and family. Thank you again for a wonderful stay Tracy and staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>There isn't enough words to describe how wonderful Tracy is in the front office. Anytime you have a question or need something she is commented to filling your needs. She is easy to talk too and is a joy to have a good laugh with. Tracy makes you feel like family here and that is a very important to me and personally being in customer service for over 20 years this is a very great trait to have. I also want to thank the wonderful house keeping staff as well. They also make you feel like family. Gelynn the property's maintains man is also a joy to be around. If you have any questions or concerns about your room he always makes time to address any issues. I would recommend this property site to all my friends and family. Thank you again for a wonderful stay Tracy and staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r368448816-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>368448816</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>My visit at the Extended Stay in Aurora served my many needs at an affordable price.</t>
+  </si>
+  <si>
+    <t>My experience at the Extended Stay was actually pretty good....fully equipped kitchen, grab and go breakfast, free wi-fi....and the staff was awesome (one person in particular Traci Young) she truly cared about the guests and their needs and really has the tools needed to cheer someone up with encouraging words....love her positive outlook on life.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>My experience at the Extended Stay was actually pretty good....fully equipped kitchen, grab and go breakfast, free wi-fi....and the staff was awesome (one person in particular Traci Young) she truly cared about the guests and their needs and really has the tools needed to cheer someone up with encouraging words....love her positive outlook on life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r359542434-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>359542434</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>don't stay here</t>
+  </si>
+  <si>
+    <t>the room stinks like someone cooked fish in it and it was never aired out afterward.  how this Extended Stay America got a good rating on another website I will never know.  there are a large number of people who are living here.  a herd of children ran, screaming and yelling, by my room more than once. the room is tiny, the bedding is shabby.  and did I mention the fish odor?  it really stinks, even after I left the window open for an hour and sprayed febreeze liberally around the room. when showering the faucet and/or drain made a sound like a creature was drowning the entire time.  the only good thing was the water was hot and the drain worked perfectly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>the room stinks like someone cooked fish in it and it was never aired out afterward.  how this Extended Stay America got a good rating on another website I will never know.  there are a large number of people who are living here.  a herd of children ran, screaming and yelling, by my room more than once. the room is tiny, the bedding is shabby.  and did I mention the fish odor?  it really stinks, even after I left the window open for an hour and sprayed febreeze liberally around the room. when showering the faucet and/or drain made a sound like a creature was drowning the entire time.  the only good thing was the water was hot and the drain worked perfectly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r309954705-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>309954705</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Not Worth It</t>
+  </si>
+  <si>
+    <t>My daughter and I were passing through and chose this hotel in order to avoid restaurant meals for a couple nights. I have enjoyed stays at numerous Extended Stays. The price point is lower, so I have never expected high quality. I expected simple furnishings, clean room and surroundings. This place is a disaster.
+There majority of the rooms were occupied by people who had made the hotel their home. A clerk explained to me that Denver was very expensive. Because of this, people who could "deal with living in a small space", chose to live here because it was cheaper than an apartment. The clerk went on to explain why.  "Heck, for $400 a week (I believe that was the example) a person has a place to live, no utilities, free cable, free wifi, mail pick up and delivery, and breakfast every morning.
+It felt as if I had stepped into a crowded, rent controlled, government funded housing complex where all walks of life were trying their best to live their lives, a complex with decent folk who's lives took difficult turns were stuffed in with the dredges. 
+Despite a room change, both our nights were endured sleeping in fumes pulled into the room from HVAC wall units from night owl residents enjoying both marijuana and tobacco. Both rooms smelled strongly of old smoke, despite the fact they do not allow smoking in the rooms and marijuana is not...My daughter and I were passing through and chose this hotel in order to avoid restaurant meals for a couple nights. I have enjoyed stays at numerous Extended Stays. The price point is lower, so I have never expected high quality. I expected simple furnishings, clean room and surroundings. This place is a disaster.There majority of the rooms were occupied by people who had made the hotel their home. A clerk explained to me that Denver was very expensive. Because of this, people who could "deal with living in a small space", chose to live here because it was cheaper than an apartment. The clerk went on to explain why.  "Heck, for $400 a week (I believe that was the example) a person has a place to live, no utilities, free cable, free wifi, mail pick up and delivery, and breakfast every morning.It felt as if I had stepped into a crowded, rent controlled, government funded housing complex where all walks of life were trying their best to live their lives, a complex with decent folk who's lives took difficult turns were stuffed in with the dredges. Despite a room change, both our nights were endured sleeping in fumes pulled into the room from HVAC wall units from night owl residents enjoying both marijuana and tobacco. Both rooms smelled strongly of old smoke, despite the fact they do not allow smoking in the rooms and marijuana is not allowed on the property.The first room had a broken TV and phone. One wall sconce above the bed was loose and hanging precariously. Breakfast is not promoted. They do put out what was surprisingly good coffee along with Nature Valley granola bars and a few withered pieces of fruit. When heading down the stairs for coffee, I passed three discarded condoms which I calmly asked to be removed as I poured myself a cup of coffee. I also passed an enormous, smelly mountain of household garbage tossed by residents into a small space at base of each stairwell regardless of a sign to take it elsewhere. Fruit flies found their way into our first room which was just above the garage.There was a loud, did I say LOUD, fight between an unhappy couple at 3AM resulting in a police visit. Apparently such activity is the norm, as over coffee I received an earful from the locals about all the various coming and goings of police and exes. I'd like to say that the residents were very kind people. Some actually welcomed us. You could see that friendships had been forged and people worried about one another. The staff was equally kind. They knew everyone's names. There was always a resident or two in the office chatting with staff. However, the extended stay customers I am accustomed to seeing, were unhappy. (I listened in to the complaints of a construction worker in town for a new hospital project.) Now, it wouldn't be fair not to mention that the hotel is preparing for a complete remodel. However, I can't the hotel getting any better until a decision is made as to what customer base they plan to serve. (Can't make a silk purse out of a pig's ear comes to mind.)A final point I must make is that in my two days there, neither staff nor customers had seen the manager. She was always "in a meeting off property". My phone calls to the manager and her manager were not returned....ever. My demand of full credit back for my stay was resolved only after I stopped by the Extended Stay just a few blocks north and related the same information posted here. The manager asked his assistant manager to run over and show staff there how to credit my account. Oh, yes, staff was short. The maintenance man and housekeeper worked the office and did not know how to use the hotel's computer program. They were also the ones to say yes to a 100% refund, something I basically told them they had to do. While the ability to tell kind, well intentioned staff what to do certainly was a plus for me, they would have benefited greatly from having a competent manager on site,MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>My daughter and I were passing through and chose this hotel in order to avoid restaurant meals for a couple nights. I have enjoyed stays at numerous Extended Stays. The price point is lower, so I have never expected high quality. I expected simple furnishings, clean room and surroundings. This place is a disaster.
+There majority of the rooms were occupied by people who had made the hotel their home. A clerk explained to me that Denver was very expensive. Because of this, people who could "deal with living in a small space", chose to live here because it was cheaper than an apartment. The clerk went on to explain why.  "Heck, for $400 a week (I believe that was the example) a person has a place to live, no utilities, free cable, free wifi, mail pick up and delivery, and breakfast every morning.
+It felt as if I had stepped into a crowded, rent controlled, government funded housing complex where all walks of life were trying their best to live their lives, a complex with decent folk who's lives took difficult turns were stuffed in with the dredges. 
+Despite a room change, both our nights were endured sleeping in fumes pulled into the room from HVAC wall units from night owl residents enjoying both marijuana and tobacco. Both rooms smelled strongly of old smoke, despite the fact they do not allow smoking in the rooms and marijuana is not...My daughter and I were passing through and chose this hotel in order to avoid restaurant meals for a couple nights. I have enjoyed stays at numerous Extended Stays. The price point is lower, so I have never expected high quality. I expected simple furnishings, clean room and surroundings. This place is a disaster.There majority of the rooms were occupied by people who had made the hotel their home. A clerk explained to me that Denver was very expensive. Because of this, people who could "deal with living in a small space", chose to live here because it was cheaper than an apartment. The clerk went on to explain why.  "Heck, for $400 a week (I believe that was the example) a person has a place to live, no utilities, free cable, free wifi, mail pick up and delivery, and breakfast every morning.It felt as if I had stepped into a crowded, rent controlled, government funded housing complex where all walks of life were trying their best to live their lives, a complex with decent folk who's lives took difficult turns were stuffed in with the dredges. Despite a room change, both our nights were endured sleeping in fumes pulled into the room from HVAC wall units from night owl residents enjoying both marijuana and tobacco. Both rooms smelled strongly of old smoke, despite the fact they do not allow smoking in the rooms and marijuana is not allowed on the property.The first room had a broken TV and phone. One wall sconce above the bed was loose and hanging precariously. Breakfast is not promoted. They do put out what was surprisingly good coffee along with Nature Valley granola bars and a few withered pieces of fruit. When heading down the stairs for coffee, I passed three discarded condoms which I calmly asked to be removed as I poured myself a cup of coffee. I also passed an enormous, smelly mountain of household garbage tossed by residents into a small space at base of each stairwell regardless of a sign to take it elsewhere. Fruit flies found their way into our first room which was just above the garage.There was a loud, did I say LOUD, fight between an unhappy couple at 3AM resulting in a police visit. Apparently such activity is the norm, as over coffee I received an earful from the locals about all the various coming and goings of police and exes. I'd like to say that the residents were very kind people. Some actually welcomed us. You could see that friendships had been forged and people worried about one another. The staff was equally kind. They knew everyone's names. There was always a resident or two in the office chatting with staff. However, the extended stay customers I am accustomed to seeing, were unhappy. (I listened in to the complaints of a construction worker in town for a new hospital project.) Now, it wouldn't be fair not to mention that the hotel is preparing for a complete remodel. However, I can't the hotel getting any better until a decision is made as to what customer base they plan to serve. (Can't make a silk purse out of a pig's ear comes to mind.)A final point I must make is that in my two days there, neither staff nor customers had seen the manager. She was always "in a meeting off property". My phone calls to the manager and her manager were not returned....ever. My demand of full credit back for my stay was resolved only after I stopped by the Extended Stay just a few blocks north and related the same information posted here. The manager asked his assistant manager to run over and show staff there how to credit my account. Oh, yes, staff was short. The maintenance man and housekeeper worked the office and did not know how to use the hotel's computer program. They were also the ones to say yes to a 100% refund, something I basically told them they had to do. While the ability to tell kind, well intentioned staff what to do certainly was a plus for me, they would have benefited greatly from having a competent manager on site,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r302547152-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>302547152</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Filthy facility and rude day clerk</t>
+  </si>
+  <si>
+    <t>Room 255 "non-smoking" smelled like a chain smoker had locked himself in it for a month and never opened the door. LaShonda apologized and opened the windows to "let the room air out". The smoke detector had been ripped off of the wall and was sitting on the shelf in the "closet" which had no hangers. The stained carpet clearly had not been vacuumed and there was NOTHING in the way of amenities in the room. I pointed these things out to LaShonda. As we were leaving the room she told me that she would personally see to it that the room was correct when I returned to occupy it later that evening. I took the room anyway and came back a few hours later. LaShonda had done an exemplary job. Although the room still stunk of cigarettes, it had been vacuumed and all of the utensils and bathroom amenities had been provided. Kudos to LaShonda for making the first day of my 25 day stay a positive one. Unfortunately, she no longer works for the facility. I also need to give kudos to the young man who works in the evenings. He deals with a lot and does it pleasantly and professionally from what I saw. I found the day manager to also be pleasant and helpful. Unfortunately, the person that tenants must deal with the most is the big, loud, unprofessionally dressed woman who mans the counter during...Room 255 "non-smoking" smelled like a chain smoker had locked himself in it for a month and never opened the door. LaShonda apologized and opened the windows to "let the room air out". The smoke detector had been ripped off of the wall and was sitting on the shelf in the "closet" which had no hangers. The stained carpet clearly had not been vacuumed and there was NOTHING in the way of amenities in the room. I pointed these things out to LaShonda. As we were leaving the room she told me that she would personally see to it that the room was correct when I returned to occupy it later that evening. I took the room anyway and came back a few hours later. LaShonda had done an exemplary job. Although the room still stunk of cigarettes, it had been vacuumed and all of the utensils and bathroom amenities had been provided. Kudos to LaShonda for making the first day of my 25 day stay a positive one. Unfortunately, she no longer works for the facility. I also need to give kudos to the young man who works in the evenings. He deals with a lot and does it pleasantly and professionally from what I saw. I found the day manager to also be pleasant and helpful. Unfortunately, the person that tenants must deal with the most is the big, loud, unprofessionally dressed woman who mans the counter during the day. How this woman got or keeps her job is beyond me. If I overheard her speak to a customer the way that she spoke to me even once, she would be fired on the spot. Maybe the crackhead clientele that she deals with at this facility has jaded her, but as a middle manager in a multi-million dollar Corporation, I did not appreciate her tone, manner, or language in her dealing with me. Had I not pre-paid for my Business stay at the facility, I would have checked out immediately following her condescending tirade at my simple request. I found her to be offensive and unprofessional and would never again visit this facility so long as she is employed there. Technically I would not return at all as I found both the rooms and the grounds to be poorly cleaned or maintained and most of the clientele to be a bit sketchy for my comfort level. The fact that the door to my room had clearly been kicked in at some point and the windows tampered with did little to add to my comfort with the characters I saw wandering around the grounds. I was told that remodeling is coming and if that includes the grounds and at least one member of the staff along with the smelly rooms with their moldy showers I might consider a return when my work brings me to the area again. Until then, I cannot rate it any higher than "Poor"MoreShow less</t>
+  </si>
+  <si>
+    <t>Room 255 "non-smoking" smelled like a chain smoker had locked himself in it for a month and never opened the door. LaShonda apologized and opened the windows to "let the room air out". The smoke detector had been ripped off of the wall and was sitting on the shelf in the "closet" which had no hangers. The stained carpet clearly had not been vacuumed and there was NOTHING in the way of amenities in the room. I pointed these things out to LaShonda. As we were leaving the room she told me that she would personally see to it that the room was correct when I returned to occupy it later that evening. I took the room anyway and came back a few hours later. LaShonda had done an exemplary job. Although the room still stunk of cigarettes, it had been vacuumed and all of the utensils and bathroom amenities had been provided. Kudos to LaShonda for making the first day of my 25 day stay a positive one. Unfortunately, she no longer works for the facility. I also need to give kudos to the young man who works in the evenings. He deals with a lot and does it pleasantly and professionally from what I saw. I found the day manager to also be pleasant and helpful. Unfortunately, the person that tenants must deal with the most is the big, loud, unprofessionally dressed woman who mans the counter during...Room 255 "non-smoking" smelled like a chain smoker had locked himself in it for a month and never opened the door. LaShonda apologized and opened the windows to "let the room air out". The smoke detector had been ripped off of the wall and was sitting on the shelf in the "closet" which had no hangers. The stained carpet clearly had not been vacuumed and there was NOTHING in the way of amenities in the room. I pointed these things out to LaShonda. As we were leaving the room she told me that she would personally see to it that the room was correct when I returned to occupy it later that evening. I took the room anyway and came back a few hours later. LaShonda had done an exemplary job. Although the room still stunk of cigarettes, it had been vacuumed and all of the utensils and bathroom amenities had been provided. Kudos to LaShonda for making the first day of my 25 day stay a positive one. Unfortunately, she no longer works for the facility. I also need to give kudos to the young man who works in the evenings. He deals with a lot and does it pleasantly and professionally from what I saw. I found the day manager to also be pleasant and helpful. Unfortunately, the person that tenants must deal with the most is the big, loud, unprofessionally dressed woman who mans the counter during the day. How this woman got or keeps her job is beyond me. If I overheard her speak to a customer the way that she spoke to me even once, she would be fired on the spot. Maybe the crackhead clientele that she deals with at this facility has jaded her, but as a middle manager in a multi-million dollar Corporation, I did not appreciate her tone, manner, or language in her dealing with me. Had I not pre-paid for my Business stay at the facility, I would have checked out immediately following her condescending tirade at my simple request. I found her to be offensive and unprofessional and would never again visit this facility so long as she is employed there. Technically I would not return at all as I found both the rooms and the grounds to be poorly cleaned or maintained and most of the clientele to be a bit sketchy for my comfort level. The fact that the door to my room had clearly been kicked in at some point and the windows tampered with did little to add to my comfort with the characters I saw wandering around the grounds. I was told that remodeling is coming and if that includes the grounds and at least one member of the staff along with the smelly rooms with their moldy showers I might consider a return when my work brings me to the area again. Until then, I cannot rate it any higher than "Poor"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r301998978-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>301998978</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Property and Accommodation</t>
+  </si>
+  <si>
+    <t>Family did not stay at the address of this weblink , however we did stay at the same franchise just 4 blocks away at 14095  East Evans. The management staff was amazing in getting us in and making sure we were comfortable and welcomed. And this even included needs with the housekeeping staff. I did feel as though the maintenance personnel might be a little over whelmed at times. We could have stayed at any of 7 or more hotels within a half mile radius, but we CHOSE to stay here for several months while on mostly business related needs. Should you think of  making a reservation for a stay here, be sure to ask  the General Manager ( Eric) for his assistance in ensuring you will be as pleased as we were with our stay. We look forward to another future booking at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Family did not stay at the address of this weblink , however we did stay at the same franchise just 4 blocks away at 14095  East Evans. The management staff was amazing in getting us in and making sure we were comfortable and welcomed. And this even included needs with the housekeeping staff. I did feel as though the maintenance personnel might be a little over whelmed at times. We could have stayed at any of 7 or more hotels within a half mile radius, but we CHOSE to stay here for several months while on mostly business related needs. Should you think of  making a reservation for a stay here, be sure to ask  the General Manager ( Eric) for his assistance in ensuring you will be as pleased as we were with our stay. We look forward to another future booking at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r279698892-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>279698892</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Dump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The toilet was broken and ran continuously. Had to turn the water off at the wall. No shampoo in the room as a matter of policy. No hair dryer at all. Pretty much a dump. When I called to get shampoo, they wanted me to hike to the lobby and get it. Not what I would call great customer service. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r268714520-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>268714520</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>I visited the front office last week. Jasmine was extremely helpful in every sense of the word. She was extremely helpful and polite. I would recommend this hotel to anyone just based on her attitude.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>I visited the front office last week. Jasmine was extremely helpful in every sense of the word. She was extremely helpful and polite. I would recommend this hotel to anyone just based on her attitude.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r256586039-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>256586039</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resident </t>
+  </si>
+  <si>
+    <t>Staff very helpful. Teri excellent with helping out with any problem. All staff excellent. This hotel is run with excellent people. I would recommend this hotel to others. Rooms are clean. I have had no problems with staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Staff very helpful. Teri excellent with helping out with any problem. All staff excellent. This hotel is run with excellent people. I would recommend this hotel to others. Rooms are clean. I have had no problems with staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r253584786-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>253584786</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>No problems here</t>
+  </si>
+  <si>
+    <t>I really appreciate the smoking room option, it snows randomly &amp; often so not having to put on layers to go outside is excellent. The bed was Super comfortable, I enjoyed my Stay-cation. Only complaint I have, there was no coffeepot, the dishes, utensils &amp; pots that come with room was incomplete.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r249561731-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>249561731</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>Rude</t>
+  </si>
+  <si>
+    <t>was treated very rudely by the morning manager when asked to get my deposit back she came in with an attitude like she was drinking all night. Was yelled at and told I couldn't get deposit til she was readyMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2015</t>
+  </si>
+  <si>
+    <t>was treated very rudely by the morning manager when asked to get my deposit back she came in with an attitude like she was drinking all night. Was yelled at and told I couldn't get deposit til she was readyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r247930423-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>247930423</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>The room I asked for wasn't available when I checked in .. Over 3 days I ended up checked into this filthy room twice</t>
+  </si>
+  <si>
+    <t>The first day was an inconvenience.. the downstairs smoking room I requested was not clean..I have arthritis so hauling luggage up stairs is not an option for me but not a big deal they'll get the room cleaned and I can switch the next day..I was more than ok with this.. and expected the room to be in good repair and clean  like the one I checked into Sunday night.
+I was soooo very wrong.
+The next day I went to work..came back got keys to the new room, packed up all my stuff in my truck drove over to the new room, it was never cleaned it reeked and had towels and trash everywhere... dragged everything back to the original room and was told id just have to take that til they got this room cleaned or I would have to do the 2nd floor which I had already told them is not an option for me.
+Day 3 went to work,stopped at the front desk and was told the room was ready..once again..packed everything up in my truck and went back to the same room, and found that there was broken glass in the carpet and tile floor and trash under the bed, I needed to leave to go to dr but  the maintenance man bless his heart spent over an hour trying to get all the glass up , hauled away the filthy chair by the bed,not...The first day was an inconvenience.. the downstairs smoking room I requested was not clean..I have arthritis so hauling luggage up stairs is not an option for me but not a big deal they'll get the room cleaned and I can switch the next day..I was more than ok with this.. and expected the room to be in good repair and clean  like the one I checked into Sunday night.I was soooo very wrong.The next day I went to work..came back got keys to the new room, packed up all my stuff in my truck drove over to the new room, it was never cleaned it reeked and had towels and trash everywhere... dragged everything back to the original room and was told id just have to take that til they got this room cleaned or I would have to do the 2nd floor which I had already told them is not an option for me.Day 3 went to work,stopped at the front desk and was told the room was ready..once again..packed everything up in my truck and went back to the same room, and found that there was broken glass in the carpet and tile floor and trash under the bed, I needed to leave to go to dr but  the maintenance man bless his heart spent over an hour trying to get all the glass up , hauled away the filthy chair by the bed,not sure what was all over it but it was vile, and fixed the leaking fridge that was full of water. the front desk was advised of this again today.I was just advised to talk to the manager tomorrow and maybe I could have a free night..really..I paid for this dump already ..I'm trapped here until the 8th but you couldn't get me to stay at this property again if they were giving away free money.I called the booking agent to make a formal complaint about the property and was told that they called the front desk and that they were informed that the room had already been cleaned,that I was being difficult and that I would have to talk to the manager,You can judge for yourselves from the photos from the dirt , hair and broken glass which I had to clean up off the floors myself, to the black mold and cigarette butts under the kitchen sink,the missing smoke detector and wires in the wall, trash on the counters, drawer falling out of the kitchen cabinet etc...If I am being difficult, but I think not.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded January 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2015</t>
+  </si>
+  <si>
+    <t>The first day was an inconvenience.. the downstairs smoking room I requested was not clean..I have arthritis so hauling luggage up stairs is not an option for me but not a big deal they'll get the room cleaned and I can switch the next day..I was more than ok with this.. and expected the room to be in good repair and clean  like the one I checked into Sunday night.
+I was soooo very wrong.
+The next day I went to work..came back got keys to the new room, packed up all my stuff in my truck drove over to the new room, it was never cleaned it reeked and had towels and trash everywhere... dragged everything back to the original room and was told id just have to take that til they got this room cleaned or I would have to do the 2nd floor which I had already told them is not an option for me.
+Day 3 went to work,stopped at the front desk and was told the room was ready..once again..packed everything up in my truck and went back to the same room, and found that there was broken glass in the carpet and tile floor and trash under the bed, I needed to leave to go to dr but  the maintenance man bless his heart spent over an hour trying to get all the glass up , hauled away the filthy chair by the bed,not...The first day was an inconvenience.. the downstairs smoking room I requested was not clean..I have arthritis so hauling luggage up stairs is not an option for me but not a big deal they'll get the room cleaned and I can switch the next day..I was more than ok with this.. and expected the room to be in good repair and clean  like the one I checked into Sunday night.I was soooo very wrong.The next day I went to work..came back got keys to the new room, packed up all my stuff in my truck drove over to the new room, it was never cleaned it reeked and had towels and trash everywhere... dragged everything back to the original room and was told id just have to take that til they got this room cleaned or I would have to do the 2nd floor which I had already told them is not an option for me.Day 3 went to work,stopped at the front desk and was told the room was ready..once again..packed everything up in my truck and went back to the same room, and found that there was broken glass in the carpet and tile floor and trash under the bed, I needed to leave to go to dr but  the maintenance man bless his heart spent over an hour trying to get all the glass up , hauled away the filthy chair by the bed,not sure what was all over it but it was vile, and fixed the leaking fridge that was full of water. the front desk was advised of this again today.I was just advised to talk to the manager tomorrow and maybe I could have a free night..really..I paid for this dump already ..I'm trapped here until the 8th but you couldn't get me to stay at this property again if they were giving away free money.I called the booking agent to make a formal complaint about the property and was told that they called the front desk and that they were informed that the room had already been cleaned,that I was being difficult and that I would have to talk to the manager,You can judge for yourselves from the photos from the dirt , hair and broken glass which I had to clean up off the floors myself, to the black mold and cigarette butts under the kitchen sink,the missing smoke detector and wires in the wall, trash on the counters, drawer falling out of the kitchen cabinet etc...If I am being difficult, but I think not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r236434741-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>236434741</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>Mixed Emotions</t>
+  </si>
+  <si>
+    <t>How do you rate a hotel that has lots of physical issues (broken things, worn and soiled) and yet has a staff that any 4 star hotel would be proud of?
+Well that is what you have here in Aurora. The hotel, unfortunately, is not one of the area Extended Stays that has been rehabbed and it shows it very clearly 
+Truthfully, it is not worth the rates that they charge through their website and most certainly not what is charged if you just walk in the door.
+Booking on Priceline as an express deal or if you can not be driven crazy by Priceline's bidding system, makes it much more acceptable (Priceline bidding is an entirely different story)
+But then you have the staff Andre, Courtney and the Manager (whose name escapes me). And they will bend over backwards to make things right as best they can. They are super friendly, very good at what they do and actually make you feel welcome.
+I think they would be that way no matter what, but cannot help but feel they are doing this as there is little else they can do.
+It is sad to say that for cheap this is a great place. But that is pretty much how it seems to me.
+I have never stayed anywhere that the guests are of  such a like mind, same complaints about the property and same raves about the staff.
+I...How do you rate a hotel that has lots of physical issues (broken things, worn and soiled) and yet has a staff that any 4 star hotel would be proud of?Well that is what you have here in Aurora. The hotel, unfortunately, is not one of the area Extended Stays that has been rehabbed and it shows it very clearly Truthfully, it is not worth the rates that they charge through their website and most certainly not what is charged if you just walk in the door.Booking on Priceline as an express deal or if you can not be driven crazy by Priceline's bidding system, makes it much more acceptable (Priceline bidding is an entirely different story)But then you have the staff Andre, Courtney and the Manager (whose name escapes me). And they will bend over backwards to make things right as best they can. They are super friendly, very good at what they do and actually make you feel welcome.I think they would be that way no matter what, but cannot help but feel they are doing this as there is little else they can do.It is sad to say that for cheap this is a great place. But that is pretty much how it seems to me.I have never stayed anywhere that the guests are of  such a like mind, same complaints about the property and same raves about the staff.I know this won't change anything. But needed to say it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>How do you rate a hotel that has lots of physical issues (broken things, worn and soiled) and yet has a staff that any 4 star hotel would be proud of?
+Well that is what you have here in Aurora. The hotel, unfortunately, is not one of the area Extended Stays that has been rehabbed and it shows it very clearly 
+Truthfully, it is not worth the rates that they charge through their website and most certainly not what is charged if you just walk in the door.
+Booking on Priceline as an express deal or if you can not be driven crazy by Priceline's bidding system, makes it much more acceptable (Priceline bidding is an entirely different story)
+But then you have the staff Andre, Courtney and the Manager (whose name escapes me). And they will bend over backwards to make things right as best they can. They are super friendly, very good at what they do and actually make you feel welcome.
+I think they would be that way no matter what, but cannot help but feel they are doing this as there is little else they can do.
+It is sad to say that for cheap this is a great place. But that is pretty much how it seems to me.
+I have never stayed anywhere that the guests are of  such a like mind, same complaints about the property and same raves about the staff.
+I...How do you rate a hotel that has lots of physical issues (broken things, worn and soiled) and yet has a staff that any 4 star hotel would be proud of?Well that is what you have here in Aurora. The hotel, unfortunately, is not one of the area Extended Stays that has been rehabbed and it shows it very clearly Truthfully, it is not worth the rates that they charge through their website and most certainly not what is charged if you just walk in the door.Booking on Priceline as an express deal or if you can not be driven crazy by Priceline's bidding system, makes it much more acceptable (Priceline bidding is an entirely different story)But then you have the staff Andre, Courtney and the Manager (whose name escapes me). And they will bend over backwards to make things right as best they can. They are super friendly, very good at what they do and actually make you feel welcome.I think they would be that way no matter what, but cannot help but feel they are doing this as there is little else they can do.It is sad to say that for cheap this is a great place. But that is pretty much how it seems to me.I have never stayed anywhere that the guests are of  such a like mind, same complaints about the property and same raves about the staff.I know this won't change anything. But needed to say it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r236215016-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>236215016</t>
+  </si>
+  <si>
+    <t>10/25/2014</t>
+  </si>
+  <si>
+    <t>...dump</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in June of 2014...would not even consider it again. Dump, dump. Abandoned automobiles, trash in drives and parking area. Transient type HUD residents in abundance. Not recommended.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r232765400-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>232765400</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>How things have changed...</t>
+  </si>
+  <si>
+    <t>I stayed at the Extended Stay America - Denver - Aurora South a couple of years ago and received the best treatment. The management was excellent and always helpful. The grounds were kept up nicely. The amenities were plentiful. My how things have changed. I returned there recently and I cannot say that I will ever return. The management has changed and not for the better. They are no longer helpful, and the way guests are spoken to is completely unacceptable. The grounds look awful. The trash cans are overflowing, there is no longer green grass, and apparently doggie excrement has taken the place of colorful flowers. The rates are astronomical, regardless of the going market rate. How they continue to do business is beyond me.Good luck if you take your chances there.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Extended Stay America - Denver - Aurora South a couple of years ago and received the best treatment. The management was excellent and always helpful. The grounds were kept up nicely. The amenities were plentiful. My how things have changed. I returned there recently and I cannot say that I will ever return. The management has changed and not for the better. They are no longer helpful, and the way guests are spoken to is completely unacceptable. The grounds look awful. The trash cans are overflowing, there is no longer green grass, and apparently doggie excrement has taken the place of colorful flowers. The rates are astronomical, regardless of the going market rate. How they continue to do business is beyond me.Good luck if you take your chances there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r226725164-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>226725164</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>This hotel was awful.</t>
+  </si>
+  <si>
+    <t>It could be a decent hotel if it the upkeep was better but as it is, this place was gross. They seem to be very concerned with theft because you have to call to ask for dishes, etc (even a trash can wasn't provided). We arrived late at night after a long drive and were exhausted. As soon as we were checked in, the staff left. We needed some things that should have been provided with the room but nobody was around. My son had bad problems with his allergies (even with meds) and we all woke up feeling ill and out of sorts.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded September 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2014</t>
+  </si>
+  <si>
+    <t>It could be a decent hotel if it the upkeep was better but as it is, this place was gross. They seem to be very concerned with theft because you have to call to ask for dishes, etc (even a trash can wasn't provided). We arrived late at night after a long drive and were exhausted. As soon as we were checked in, the staff left. We needed some things that should have been provided with the room but nobody was around. My son had bad problems with his allergies (even with meds) and we all woke up feeling ill and out of sorts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r224480532-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>224480532</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>Filthy, Trashed and Bad Service!</t>
+  </si>
+  <si>
+    <t>The first reservation I made was for the newer ESA across the street; however they lost my first reservation. I made another reservation but this time they did not take my credit info, stating that was not their policy. Of course, when I called back to confirm a 2nd time, they had no record of my reservation and no rooms were available; I was stuck going to the south Aurora facility. What a nightmare!
+    The first room for my one week stay was filthy. The floor was sticky; bugs in the bathroom; no mattress cover; no blanket; hair and dirt on the bed and holes in the sheet. Three out of four dresser-drawers were broken; 3 out of 4 lamps were broken and the bathroom sink's hot water nozzle was broken as well. There were exposed wires under the air conditioner. I did not receive a plate, bowl, fork, spoon, coffee maker, blanket, etc, until the next day (and only when I called three times and finally walked in, waited and picked them up myself). The walkways were covered in spilled liquid and the planted areas were filled with dog poop. I had no choice but to stay as this was the fourth of July week and all of the other long stay hotels were either booked or too expensive. 
+   I finally got another room upstairs and it was thankfully cleaner, but dirt was still visible all around the refrigerator...The first reservation I made was for the newer ESA across the street; however they lost my first reservation. I made another reservation but this time they did not take my credit info, stating that was not their policy. Of course, when I called back to confirm a 2nd time, they had no record of my reservation and no rooms were available; I was stuck going to the south Aurora facility. What a nightmare!    The first room for my one week stay was filthy. The floor was sticky; bugs in the bathroom; no mattress cover; no blanket; hair and dirt on the bed and holes in the sheet. Three out of four dresser-drawers were broken; 3 out of 4 lamps were broken and the bathroom sink's hot water nozzle was broken as well. There were exposed wires under the air conditioner. I did not receive a plate, bowl, fork, spoon, coffee maker, blanket, etc, until the next day (and only when I called three times and finally walked in, waited and picked them up myself). The walkways were covered in spilled liquid and the planted areas were filled with dog poop. I had no choice but to stay as this was the fourth of July week and all of the other long stay hotels were either booked or too expensive.    I finally got another room upstairs and it was thankfully cleaner, but dirt was still visible all around the refrigerator and around the floor boards. There was yelling and cussing until the late hours of the night (or early morning). As a single woman, I was scared to death! I talked to customer service twice and was told they would call me back the next day (never happened!).     My suggestion: DO NOT GO THERE! I would give this zero stars if given the choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>The first reservation I made was for the newer ESA across the street; however they lost my first reservation. I made another reservation but this time they did not take my credit info, stating that was not their policy. Of course, when I called back to confirm a 2nd time, they had no record of my reservation and no rooms were available; I was stuck going to the south Aurora facility. What a nightmare!
+    The first room for my one week stay was filthy. The floor was sticky; bugs in the bathroom; no mattress cover; no blanket; hair and dirt on the bed and holes in the sheet. Three out of four dresser-drawers were broken; 3 out of 4 lamps were broken and the bathroom sink's hot water nozzle was broken as well. There were exposed wires under the air conditioner. I did not receive a plate, bowl, fork, spoon, coffee maker, blanket, etc, until the next day (and only when I called three times and finally walked in, waited and picked them up myself). The walkways were covered in spilled liquid and the planted areas were filled with dog poop. I had no choice but to stay as this was the fourth of July week and all of the other long stay hotels were either booked or too expensive. 
+   I finally got another room upstairs and it was thankfully cleaner, but dirt was still visible all around the refrigerator...The first reservation I made was for the newer ESA across the street; however they lost my first reservation. I made another reservation but this time they did not take my credit info, stating that was not their policy. Of course, when I called back to confirm a 2nd time, they had no record of my reservation and no rooms were available; I was stuck going to the south Aurora facility. What a nightmare!    The first room for my one week stay was filthy. The floor was sticky; bugs in the bathroom; no mattress cover; no blanket; hair and dirt on the bed and holes in the sheet. Three out of four dresser-drawers were broken; 3 out of 4 lamps were broken and the bathroom sink's hot water nozzle was broken as well. There were exposed wires under the air conditioner. I did not receive a plate, bowl, fork, spoon, coffee maker, blanket, etc, until the next day (and only when I called three times and finally walked in, waited and picked them up myself). The walkways were covered in spilled liquid and the planted areas were filled with dog poop. I had no choice but to stay as this was the fourth of July week and all of the other long stay hotels were either booked or too expensive.    I finally got another room upstairs and it was thankfully cleaner, but dirt was still visible all around the refrigerator and around the floor boards. There was yelling and cussing until the late hours of the night (or early morning). As a single woman, I was scared to death! I talked to customer service twice and was told they would call me back the next day (never happened!).     My suggestion: DO NOT GO THERE! I would give this zero stars if given the choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r220714992-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>220714992</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Keep driving!!!</t>
+  </si>
+  <si>
+    <t>We had to go to Denver for a family emergency and did not reserve a room anywhere, which is our fault---after driving around for 2 hours looking for a room, we were exhausted and found this hotel--the employee that checked us in was very nice, but that is the only good thing I can say, besides the fact that the AC worked---the room was disgusting and like most of the reviews on here say, it did smell like smoke--I wouldn't use the microwave if my life depended on it--the bathroom was very, very dirty and the cold water in the bathroom did not work---we did not sleep all night and the bedding was gross--the front desk clerk told us to use a different set of stairs, because they were doing maintenance on the set near our room--ummm...she could have mentioned that maintenance was working ALL THROUGH THE NIGHT!!!! All we could hear, all night long was beeping as the truck kept backing up---not worth the stay for the price!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded August 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2014</t>
+  </si>
+  <si>
+    <t>We had to go to Denver for a family emergency and did not reserve a room anywhere, which is our fault---after driving around for 2 hours looking for a room, we were exhausted and found this hotel--the employee that checked us in was very nice, but that is the only good thing I can say, besides the fact that the AC worked---the room was disgusting and like most of the reviews on here say, it did smell like smoke--I wouldn't use the microwave if my life depended on it--the bathroom was very, very dirty and the cold water in the bathroom did not work---we did not sleep all night and the bedding was gross--the front desk clerk told us to use a different set of stairs, because they were doing maintenance on the set near our room--ummm...she could have mentioned that maintenance was working ALL THROUGH THE NIGHT!!!! All we could hear, all night long was beeping as the truck kept backing up---not worth the stay for the price!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r216507237-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>216507237</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not clean on any level. </t>
+  </si>
+  <si>
+    <t>I checked in around 10 in the night. We walked into a stale cigarette smell, that was the first problem.  The second is my wife spent an hour scrubbing the room. The bathroom had mold all over the shower and tub, then the toilet looked like it hadn't been touched in days.  My wife had to scrub pee and pubic hair off the seat. The lights beside the bed didn't work so I pulled the chair away from the wall to find someone had bent the cord into the outlet and part of the metal was sticking out. Can you say accident waiting to happen, we showed the personal here and she said someone will look at it tomorrow.  Wow!   Not to mention the stains all over the floor. I'm staying for work and I'm not paying so I don't have a choice.  But this is a dump of a motel,  and obviously the housekeeping, and managers could care less here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2014</t>
+  </si>
+  <si>
+    <t>I checked in around 10 in the night. We walked into a stale cigarette smell, that was the first problem.  The second is my wife spent an hour scrubbing the room. The bathroom had mold all over the shower and tub, then the toilet looked like it hadn't been touched in days.  My wife had to scrub pee and pubic hair off the seat. The lights beside the bed didn't work so I pulled the chair away from the wall to find someone had bent the cord into the outlet and part of the metal was sticking out. Can you say accident waiting to happen, we showed the personal here and she said someone will look at it tomorrow.  Wow!   Not to mention the stains all over the floor. I'm staying for work and I'm not paying so I don't have a choice.  But this is a dump of a motel,  and obviously the housekeeping, and managers could care less here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r216504189-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>216504189</t>
+  </si>
+  <si>
+    <t>Gross, smoky, and dirty.</t>
+  </si>
+  <si>
+    <t>First off the motel room smells of old cigarettes.  Second the room is filthy,  stains on the floor, stains on the comforter,  mold growing all over the bathroom tub. The kitchen has broken cupboards and looks like it hasn't been cleaned in awhile.  We are not sure but I don't think the bedding has been changed ither. Very gross here, so disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>First off the motel room smells of old cigarettes.  Second the room is filthy,  stains on the floor, stains on the comforter,  mold growing all over the bathroom tub. The kitchen has broken cupboards and looks like it hasn't been cleaned in awhile.  We are not sure but I don't think the bedding has been changed ither. Very gross here, so disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r213686101-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>213686101</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Unclean</t>
+  </si>
+  <si>
+    <t>I would not recommend staying here.  I booked two beds.  I was given one bed and a pull out couch. The toilet was not clean, the room was supposed to be nonsmoking. The room wreaked of smoke.  And the air conditioner didn't work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r210362849-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>210362849</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>DISGUSTING!</t>
+  </si>
+  <si>
+    <t>This place was a nightmare! My friends and I called the 1800 number when we pulled into Denver at 3am. She booked us a room. We got to the hotel and the lady at the desk argued with me about making reservations. Then had me walk to 3 rooms to see if they were clean! The room, beds and bedding all smelled awful. The shower and towels, carpet and even the doors were dirty. Never would I recommend this hotel to ANYONE! If I could leave a ZERO rating I would. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded July 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2014</t>
+  </si>
+  <si>
+    <t>This place was a nightmare! My friends and I called the 1800 number when we pulled into Denver at 3am. She booked us a room. We got to the hotel and the lady at the desk argued with me about making reservations. Then had me walk to 3 rooms to see if they were clean! The room, beds and bedding all smelled awful. The shower and towels, carpet and even the doors were dirty. Never would I recommend this hotel to ANYONE! If I could leave a ZERO rating I would. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r209615718-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>209615718</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Harvard dr.</t>
+  </si>
+  <si>
+    <t>If your looking for a safe area for yourself or family  this is a perfect Hotel its kinda a hidden hotel NICE!! .just seconds away from all your travels dreams .. seconds from main interstates, the best top restaurants in Aurora Co. and for you ladies shopping, shopping  and more shopping. just 5 min from the Aurora co mall..   i love it ..low end and high end fashions.. this Hotel is great place to relax the  staff were  so kind and helpful. they make you feel like you never left home.                                                        thanks to Terri and staffMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded June 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2014</t>
+  </si>
+  <si>
+    <t>If your looking for a safe area for yourself or family  this is a perfect Hotel its kinda a hidden hotel NICE!! .just seconds away from all your travels dreams .. seconds from main interstates, the best top restaurants in Aurora Co. and for you ladies shopping, shopping  and more shopping. just 5 min from the Aurora co mall..   i love it ..low end and high end fashions.. this Hotel is great place to relax the  staff were  so kind and helpful. they make you feel like you never left home.                                                        thanks to Terri and staffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r207534580-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>207534580</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Kind of went down hill since I was here last year.</t>
+  </si>
+  <si>
+    <t>The room and location were ok. Faucet leaks and refrigerator ran constantly and sounded like a truck idling. Got to hear the people next door having sex and midnight and 4am. No silverware or any utensils. Time to find a new place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded June 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2014</t>
+  </si>
+  <si>
+    <t>The room and location were ok. Faucet leaks and refrigerator ran constantly and sounded like a truck idling. Got to hear the people next door having sex and midnight and 4am. No silverware or any utensils. Time to find a new place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r199995328-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>199995328</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>Very friendly, and trustworthy.</t>
+  </si>
+  <si>
+    <t>The crestwood suites off of Harvard st. Aurora CO. Is a place I can rely on all the time. They are very friendly and also understanding. The service is also outstanding. I would recommend this place for any family s or individuals who are looking for a safe place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>The crestwood suites off of Harvard st. Aurora CO. Is a place I can rely on all the time. They are very friendly and also understanding. The service is also outstanding. I would recommend this place for any family s or individuals who are looking for a safe place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r193591817-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>193591817</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noisy night </t>
+  </si>
+  <si>
+    <t>We stayed at the extended stay on Evans in Aurora CO for one night. The associate was extremely friendly and did a great job of checking is in. We had someone try and enter the room shortly after midnight, thanks goodness for the interior locks. Also we had a domestic dispute going on for a couple of hours in the early morning hours. The room was clean and the location was very good. If it was not for the noise it would have been a good place to stay. One final note I had a problem with a room at an Extended Stay in Billing last summer. They promised me a free room at anyone of their establishments but did not follow through.OMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded February 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at the extended stay on Evans in Aurora CO for one night. The associate was extremely friendly and did a great job of checking is in. We had someone try and enter the room shortly after midnight, thanks goodness for the interior locks. Also we had a domestic dispute going on for a couple of hours in the early morning hours. The room was clean and the location was very good. If it was not for the noise it would have been a good place to stay. One final note I had a problem with a room at an Extended Stay in Billing last summer. They promised me a free room at anyone of their establishments but did not follow through.OMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r191181786-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>191181786</t>
+  </si>
+  <si>
+    <t>01/17/2014</t>
+  </si>
+  <si>
+    <t>This place has gone down hill.....</t>
+  </si>
+  <si>
+    <t>I've stayed at this place before w my boyfriend to have date nights &amp; for the price it was nice.  But after our most recent stay here, we were sadly disappointed! The blankets were dirty, stains on the walls that would've taken minutes to wipe down, bathtub hadn't been cleaned &amp; had hair all over, there were items left in the room from the previous guests under neath the bed, fridge &amp; trash can. It was so noisy from ppl in the rooms next to us that we had to blare our own tv in order to hear.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r181203588-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>181203588</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Look else where, RUN</t>
+  </si>
+  <si>
+    <t>There rooms are dirty, the staff is unprofessional and lack communication skills, the shower does not drain worse than a motel very sad to say it has Extended Stay attached to this very disgusting placeMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded October 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2013</t>
+  </si>
+  <si>
+    <t>There rooms are dirty, the staff is unprofessional and lack communication skills, the shower does not drain worse than a motel very sad to say it has Extended Stay attached to this very disgusting placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r181059511-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>181059511</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Worse customer service ever</t>
+  </si>
+  <si>
+    <t>The only polite person at this location is Andre. Other than that staff are rude. I was locked out of my bathroom and called twelve (12) Times to front desk with no answer, I finally used a sick to open it.  Room was not clean, I had to clean woke room and go wash the shower curtain that is cotton and was stained yellow and black.  Rate is really good but i got what i paid for. Come here if you can do your own maintenance and will not need anything from staff. I was even promised by manager someone would look at my bathroom tub and take out a broken chair...week two its still hereMoreShow less</t>
+  </si>
+  <si>
+    <t>The only polite person at this location is Andre. Other than that staff are rude. I was locked out of my bathroom and called twelve (12) Times to front desk with no answer, I finally used a sick to open it.  Room was not clean, I had to clean woke room and go wash the shower curtain that is cotton and was stained yellow and black.  Rate is really good but i got what i paid for. Come here if you can do your own maintenance and will not need anything from staff. I was even promised by manager someone would look at my bathroom tub and take out a broken chair...week two its still hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r180850183-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>180850183</t>
+  </si>
+  <si>
+    <t>10/13/2013</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>We arrived after a morning of flight delays to be told our room wasn't ready. We came back an hr later and hauled our suitcases up the stairs only to open the door and be horrified. We got a non smoking room which stunk of cigarette and there were burn marks all over the couch, bed, table and kitchen bench. The bed was unmade, covered in dust balls and disgustingly dirty. The floor was filthy and look liked it hadn't been vacuumed at all in months. The bathroom was also dirty to the point where white porcelain was brown. We left after 5 mins and even the door wouldn't shut. Do not stay here its horrible. We checked in next door to the Marriot for $60 more and it was beautiful by comparison.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived after a morning of flight delays to be told our room wasn't ready. We came back an hr later and hauled our suitcases up the stairs only to open the door and be horrified. We got a non smoking room which stunk of cigarette and there were burn marks all over the couch, bed, table and kitchen bench. The bed was unmade, covered in dust balls and disgustingly dirty. The floor was filthy and look liked it hadn't been vacuumed at all in months. The bathroom was also dirty to the point where white porcelain was brown. We left after 5 mins and even the door wouldn't shut. Do not stay here its horrible. We checked in next door to the Marriot for $60 more and it was beautiful by comparison.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r176230691-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>176230691</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>Spent  two nights</t>
+  </si>
+  <si>
+    <t>After driving for 15 days, business demanded we spend a couple of days. Extended Stay America needs help. The room was far from perfect, but our needs were met. The ADA Handicapped room worked. We were glad to get on the road again and finally get home two days later.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2013</t>
+  </si>
+  <si>
+    <t>After driving for 15 days, business demanded we spend a couple of days. Extended Stay America needs help. The room was far from perfect, but our needs were met. The ADA Handicapped room worked. We were glad to get on the road again and finally get home two days later.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r170513787-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>170513787</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Don't stay here unless absolutely have to.</t>
+  </si>
+  <si>
+    <t>The rooms where not what I reserved and three other people had the same problem while I was waiting for a resolution to the problem then when I get to the room the safety latch was not on the door then found out that the toilet was plugged and no plunger in the room. Found hair in the bed between the sheets.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r167818781-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>167818781</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>This place is a dive</t>
+  </si>
+  <si>
+    <t>Stained mattresses No mattress coverAir conditioner sounds like a jet when operatingRipped bar stools Dirty stove top and microwaveBath tile and toilet have moldBreakfast is minimal and runs out quickly</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r166465503-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>166465503</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Never plan to stay here if u had no choice</t>
+  </si>
+  <si>
+    <t>It was terrible. As soon as we entered we were hit with the horrible smoke of cigarettes and alcohol. The bed looked clean but underneath they were horrible. The couch looked liked it was taken out of the dumpster. The bathrooms were stinking and was not clean. The napkins and the towels were dirty and brown in color. It was very congested. The outdoors looked good at first but had people smoking pot and also very unclean. You have to go down to the front desk if you need even tissues or napkins. When we asked if they could change the room to non-smoking room, they were very rude and said everything was full. Smaller Motels that we stayed in were better and had better beds. And it is not even in Denver and is far away from almost everything. We cannot believe how tripadvisor gave it a good rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>It was terrible. As soon as we entered we were hit with the horrible smoke of cigarettes and alcohol. The bed looked clean but underneath they were horrible. The couch looked liked it was taken out of the dumpster. The bathrooms were stinking and was not clean. The napkins and the towels were dirty and brown in color. It was very congested. The outdoors looked good at first but had people smoking pot and also very unclean. You have to go down to the front desk if you need even tissues or napkins. When we asked if they could change the room to non-smoking room, they were very rude and said everything was full. Smaller Motels that we stayed in were better and had better beds. And it is not even in Denver and is far away from almost everything. We cannot believe how tripadvisor gave it a good rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r164431636-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>164431636</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Keep Looking If You Can</t>
+  </si>
+  <si>
+    <t>They were overbooked and didn't accommodate my reservation the first night. No offer followed to adjust the price to compensate. They blamed the prior guest for the atrocious condition of the carpet saying they just couldn't get it clean. My experience is that a burned carpet can't be cleaned. Given the general staff attitude and the condition the property is in....    I will keep looking in the future and I suggest you do too!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded June 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2013</t>
+  </si>
+  <si>
+    <t>They were overbooked and didn't accommodate my reservation the first night. No offer followed to adjust the price to compensate. They blamed the prior guest for the atrocious condition of the carpet saying they just couldn't get it clean. My experience is that a burned carpet can't be cleaned. Given the general staff attitude and the condition the property is in....    I will keep looking in the future and I suggest you do too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r164212451-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>164212451</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>I would rate ZERO stars if possible.</t>
+  </si>
+  <si>
+    <t>Ok, my mother moved here to aurora first and shes was staying here at this extended stay she bought a room for me my fiance and my brother to move in. the night she bought it she went to check the room and it was HORRIBLY dirty, it had not been touched since the last people left. the first morning we woke up and found out the bedside lamp doesnt work. not only that but the lamp shades are messed up so they are lopsided and a fire hazard since the bulb socket is also loose. the alarm clock is broken also. the carpets are dirsty and nasty the sheets were to. the closet sheles broke off of the dry wall by simply touching it. the room is dark and musty. we told them we wanted smoking but they gave us NONSMOKING yet it still smells like an ash trey! it only gets worse. our airconditioner stopped working. then with some fannageling we get it working. the second day we were here they had a survery woman coming around asking about what needed to be fixed in the room. we told them, yet we had not fully explored what was all wrong. but it didnt matter they came back the next day we were busy then they never came back. that was over 2 months ago. then after buying food for our room i was making something on the very...Ok, my mother moved here to aurora first and shes was staying here at this extended stay she bought a room for me my fiance and my brother to move in. the night she bought it she went to check the room and it was HORRIBLY dirty, it had not been touched since the last people left. the first morning we woke up and found out the bedside lamp doesnt work. not only that but the lamp shades are messed up so they are lopsided and a fire hazard since the bulb socket is also loose. the alarm clock is broken also. the carpets are dirsty and nasty the sheets were to. the closet sheles broke off of the dry wall by simply touching it. the room is dark and musty. we told them we wanted smoking but they gave us NONSMOKING yet it still smells like an ash trey! it only gets worse. our airconditioner stopped working. then with some fannageling we get it working. the second day we were here they had a survery woman coming around asking about what needed to be fixed in the room. we told them, yet we had not fully explored what was all wrong. but it didnt matter they came back the next day we were busy then they never came back. that was over 2 months ago. then after buying food for our room i was making something on the very dysfunctional stove not only did it look like they have never cleaned it it smelled of burning food. the front and back. our fire alarm went off which seemed normal. now the alarm goes off when steam from boiling water hits it. you cant leave the bathroom door open with a hot shower going. it will make your alarm go off. also you wont want to boil water. we bought salad stuff and eggs and a day later they were ruined. the freezer froze up and drowned our fridge ruining our eggs and green veges. the fridge has not started working correctly since. our food has been ruined multiple times. THEN we found our floor was starting to be cold and wet. after a few days of that ( i thought we spilled the dog water) we found out the air conditioner has a sheet of ice about 6 inches thinck melting into our floor. it detroyed one of our boxes with my jewelry in it. now our air doesnt work at all just as soon as it starts getting warm out. we were here for two months loyaly paying our bill no problem. then they decided with NO warning that they were raising there prices. so now its almost impossible to live here. it 1300 a month almost. there is no oven. the toaster is broken. the timer on it doesnt work. we found that out the hard way. i was making dinner and toasting bread for spaghetti and i had it on low. instead of it popping the bread out it almost started a fire. the microwave either burns everything or wont warm anything up. the drawers are coming off also. the tv has a reset. it goes off every hour or so then you have to turn it back on reset the volume and the channel. oh, and the interenet is basiclaly dial up unless you pay for the upgrade for 30 extra a month. this place is NOT worth your hard earned cash. living under a bridge would be more pallitable than this place. the washer is broken it doesnt even wet your clothes. there are cops in and out drug dogs, people fighting, the DEA are here almost weekly. now weve been waiting for someone to come fix our air and they havent. now weve been all weekend with NO cold air. towels and toilet paper are a rare find. they give us one toilet paper roll between three people. so we have to go talk to them more often. we wanted to sweep a while back and they said they "did not have a broom". uor friends moved here shortly after us. there room was dirtier. they had condoms all over the the place and condom wrappers. the hotel manager (we assume thats who she was) was very rude to him cussed him out. thats because they had given him the wrong room the first time then they asked for a two bed and they gave them a bed with a pull out couch. which is NOT okay for "extended stay". they also have random health hazards around the grounds. we dealt with the managers at another extended stay and they were just as rude and stupid. this is the worst chain i have been to EVER. there are a few people at the front desk i find very polite and helpful though. while the stay is bad i believe it is the companies problem not so much the service people on site. oh and they say they have the lowest prices available WRONG and they dont have a pool. even though they say they do.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded June 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2013</t>
+  </si>
+  <si>
+    <t>Ok, my mother moved here to aurora first and shes was staying here at this extended stay she bought a room for me my fiance and my brother to move in. the night she bought it she went to check the room and it was HORRIBLY dirty, it had not been touched since the last people left. the first morning we woke up and found out the bedside lamp doesnt work. not only that but the lamp shades are messed up so they are lopsided and a fire hazard since the bulb socket is also loose. the alarm clock is broken also. the carpets are dirsty and nasty the sheets were to. the closet sheles broke off of the dry wall by simply touching it. the room is dark and musty. we told them we wanted smoking but they gave us NONSMOKING yet it still smells like an ash trey! it only gets worse. our airconditioner stopped working. then with some fannageling we get it working. the second day we were here they had a survery woman coming around asking about what needed to be fixed in the room. we told them, yet we had not fully explored what was all wrong. but it didnt matter they came back the next day we were busy then they never came back. that was over 2 months ago. then after buying food for our room i was making something on the very...Ok, my mother moved here to aurora first and shes was staying here at this extended stay she bought a room for me my fiance and my brother to move in. the night she bought it she went to check the room and it was HORRIBLY dirty, it had not been touched since the last people left. the first morning we woke up and found out the bedside lamp doesnt work. not only that but the lamp shades are messed up so they are lopsided and a fire hazard since the bulb socket is also loose. the alarm clock is broken also. the carpets are dirsty and nasty the sheets were to. the closet sheles broke off of the dry wall by simply touching it. the room is dark and musty. we told them we wanted smoking but they gave us NONSMOKING yet it still smells like an ash trey! it only gets worse. our airconditioner stopped working. then with some fannageling we get it working. the second day we were here they had a survery woman coming around asking about what needed to be fixed in the room. we told them, yet we had not fully explored what was all wrong. but it didnt matter they came back the next day we were busy then they never came back. that was over 2 months ago. then after buying food for our room i was making something on the very dysfunctional stove not only did it look like they have never cleaned it it smelled of burning food. the front and back. our fire alarm went off which seemed normal. now the alarm goes off when steam from boiling water hits it. you cant leave the bathroom door open with a hot shower going. it will make your alarm go off. also you wont want to boil water. we bought salad stuff and eggs and a day later they were ruined. the freezer froze up and drowned our fridge ruining our eggs and green veges. the fridge has not started working correctly since. our food has been ruined multiple times. THEN we found our floor was starting to be cold and wet. after a few days of that ( i thought we spilled the dog water) we found out the air conditioner has a sheet of ice about 6 inches thinck melting into our floor. it detroyed one of our boxes with my jewelry in it. now our air doesnt work at all just as soon as it starts getting warm out. we were here for two months loyaly paying our bill no problem. then they decided with NO warning that they were raising there prices. so now its almost impossible to live here. it 1300 a month almost. there is no oven. the toaster is broken. the timer on it doesnt work. we found that out the hard way. i was making dinner and toasting bread for spaghetti and i had it on low. instead of it popping the bread out it almost started a fire. the microwave either burns everything or wont warm anything up. the drawers are coming off also. the tv has a reset. it goes off every hour or so then you have to turn it back on reset the volume and the channel. oh, and the interenet is basiclaly dial up unless you pay for the upgrade for 30 extra a month. this place is NOT worth your hard earned cash. living under a bridge would be more pallitable than this place. the washer is broken it doesnt even wet your clothes. there are cops in and out drug dogs, people fighting, the DEA are here almost weekly. now weve been waiting for someone to come fix our air and they havent. now weve been all weekend with NO cold air. towels and toilet paper are a rare find. they give us one toilet paper roll between three people. so we have to go talk to them more often. we wanted to sweep a while back and they said they "did not have a broom". uor friends moved here shortly after us. there room was dirtier. they had condoms all over the the place and condom wrappers. the hotel manager (we assume thats who she was) was very rude to him cussed him out. thats because they had given him the wrong room the first time then they asked for a two bed and they gave them a bed with a pull out couch. which is NOT okay for "extended stay". they also have random health hazards around the grounds. we dealt with the managers at another extended stay and they were just as rude and stupid. this is the worst chain i have been to EVER. there are a few people at the front desk i find very polite and helpful though. while the stay is bad i believe it is the companies problem not so much the service people on site. oh and they say they have the lowest prices available WRONG and they dont have a pool. even though they say they do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r161021425-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>161021425</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Not for overnight guests</t>
+  </si>
+  <si>
+    <t>This is a "motel" where very low income people crash for a month or more.  The non-smoking rooms are not!  If you have sensitivities to cigarette smoke, go elsewhere.  All rooms are allowed pets so if you have any allergies to animals, go elsewhere.  We found cigarette ashes in our room after being told it was a non-smoking room-from the maids.  then , the bed was hard as plywood so we had to use our camping foam for some cushion. Just couldn't win.  The front desk clerk, Bill, was so patient and helpful.  He was why we stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2013</t>
+  </si>
+  <si>
+    <t>This is a "motel" where very low income people crash for a month or more.  The non-smoking rooms are not!  If you have sensitivities to cigarette smoke, go elsewhere.  All rooms are allowed pets so if you have any allergies to animals, go elsewhere.  We found cigarette ashes in our room after being told it was a non-smoking room-from the maids.  then , the bed was hard as plywood so we had to use our camping foam for some cushion. Just couldn't win.  The front desk clerk, Bill, was so patient and helpful.  He was why we stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r160991195-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>160991195</t>
+  </si>
+  <si>
+    <t>Great place to stay for duration</t>
+  </si>
+  <si>
+    <t>I enjoyed staying with extended stay America and would recommend to fellow united parcel service employees.Jonathan is a manager who is down to earth and well aware of how to provide excellent customer service. Thankful for experience and wanted to take a moment from my hectic schedule to share my experience at this specific hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at Extended Stay America - Denver - Aurora South, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>I enjoyed staying with extended stay America and would recommend to fellow united parcel service employees.Jonathan is a manager who is down to earth and well aware of how to provide excellent customer service. Thankful for experience and wanted to take a moment from my hectic schedule to share my experience at this specific hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r160606731-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>160606731</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Stinks like smoke...welcome to the ghetto!</t>
+  </si>
+  <si>
+    <t>Stayed here for a job interview the following morning. Non-smoking room smells horribly of stale cigarettes. Room is not updated and very dingy. The bed is loosely made with no top cover, just sheets. I'm a little afraid to touch anything. Carpet feels sticky. The only thing in here made within the past 10 years is the tv. Random scruffy kids wandering around in the parking lot. I feel sorry for anyone staying here longer than one night!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded May 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for a job interview the following morning. Non-smoking room smells horribly of stale cigarettes. Room is not updated and very dingy. The bed is loosely made with no top cover, just sheets. I'm a little afraid to touch anything. Carpet feels sticky. The only thing in here made within the past 10 years is the tv. Random scruffy kids wandering around in the parking lot. I feel sorry for anyone staying here longer than one night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r156494949-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>156494949</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Pretty tired, but they tried</t>
+  </si>
+  <si>
+    <t>The staff in the office is first class! They have tried to make the rooms look nice, but, the carpet is very dirty and worn. The lament on the cabinets are bubbling and pealing off. One of our rooms did not have a coffee pot or utensils. The location was very convenient. The staff members are the true shinning stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded April 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2013</t>
+  </si>
+  <si>
+    <t>The staff in the office is first class! They have tried to make the rooms look nice, but, the carpet is very dirty and worn. The lament on the cabinets are bubbling and pealing off. One of our rooms did not have a coffee pot or utensils. The location was very convenient. The staff members are the true shinning stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r154992977-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>154992977</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>We loved it</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed our stay.  We credit the hotel personnel for tending to all of our needs.  With one front desk staff on the weekend to accommodate 138 guests, they amazingly are able to get to everyone's needs.  It is as clean and well maintained as any 15 year old hotel at which we we have stayed. The kitchenette is great; we cooked bacon and eggs for breakfast, cheeseburgers for lunch, and steak for dinner.  If you would rather eat out, Texas Roadhouse and Boston Market  are across the street.  There is also a Mexican restaurant that serves great margaritas across the way.  The hotel also offers a grab-and-go breakfast that includes coffee, tea, hot chocolate, fruit, muffin, instant oatmeal, and breakfast bars.  The breakfast ends promptly at 9:30 am.  There are no restaurants in the hotel, however I rate the restaurants in the area excellent.  Same with the swimming pool; there is no pool on the property, but use of the nearby Bally's fitness was awesome (which includes use of cardio-machines, weights, whirlpool, and swimming pool was included for the duration of the stay).MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded March 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2013</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed our stay.  We credit the hotel personnel for tending to all of our needs.  With one front desk staff on the weekend to accommodate 138 guests, they amazingly are able to get to everyone's needs.  It is as clean and well maintained as any 15 year old hotel at which we we have stayed. The kitchenette is great; we cooked bacon and eggs for breakfast, cheeseburgers for lunch, and steak for dinner.  If you would rather eat out, Texas Roadhouse and Boston Market  are across the street.  There is also a Mexican restaurant that serves great margaritas across the way.  The hotel also offers a grab-and-go breakfast that includes coffee, tea, hot chocolate, fruit, muffin, instant oatmeal, and breakfast bars.  The breakfast ends promptly at 9:30 am.  There are no restaurants in the hotel, however I rate the restaurants in the area excellent.  Same with the swimming pool; there is no pool on the property, but use of the nearby Bally's fitness was awesome (which includes use of cardio-machines, weights, whirlpool, and swimming pool was included for the duration of the stay).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r154367244-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>154367244</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Always come back!!!!!!!</t>
+  </si>
+  <si>
+    <t>I have stayed at this location off and on for the last 3 years and the staff is Very AMAZING!!! They are always extreamly accommedating and friendly. I cannot believe the value of what i get for the ridiclously low rate i pay. My last day I was saddend to hear that Pam, the manager, was leaving to another location but i will continue to be loyal to this hotel, although i do plan to go and visit her because I am sure that any hotel she works at will be top notch. Again I would like to thank the entire staff for their hospitality. Every single employee is perfect for customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded March 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at this location off and on for the last 3 years and the staff is Very AMAZING!!! They are always extreamly accommedating and friendly. I cannot believe the value of what i get for the ridiclously low rate i pay. My last day I was saddend to hear that Pam, the manager, was leaving to another location but i will continue to be loyal to this hotel, although i do plan to go and visit her because I am sure that any hotel she works at will be top notch. Again I would like to thank the entire staff for their hospitality. Every single employee is perfect for customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r153000063-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>153000063</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>We came in for the National Western Stock show. The rooms were clean and the price was right. The staff was very friendly and knowledgeable. Grab n go breakfast was great we can get in and grab something to eat and get to the Stock Show every morning it was great. We will definitely stay next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded February 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2013</t>
+  </si>
+  <si>
+    <t>We came in for the National Western Stock show. The rooms were clean and the price was right. The staff was very friendly and knowledgeable. Grab n go breakfast was great we can get in and grab something to eat and get to the Stock Show every morning it was great. We will definitely stay next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r151883742-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>151883742</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>RFrazier</t>
+  </si>
+  <si>
+    <t>I found the staff and property to be pleasant and professional.  I hae not encountered any issues to warrent a complaint during my stay.   Any request I have made of staff has been quickly responded to.  I was ill for a period and the manager was there to assist me and see to my well being.  That in itself was a huge help for me considering I am so far away from home and family.  I am thankful for being in a place where the personnel was truly there for me in the time of need.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded February 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2013</t>
+  </si>
+  <si>
+    <t>I found the staff and property to be pleasant and professional.  I hae not encountered any issues to warrent a complaint during my stay.   Any request I have made of staff has been quickly responded to.  I was ill for a period and the manager was there to assist me and see to my well being.  That in itself was a huge help for me considering I am so far away from home and family.  I am thankful for being in a place where the personnel was truly there for me in the time of need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r151774017-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>151774017</t>
+  </si>
+  <si>
+    <t>02/09/2013</t>
+  </si>
+  <si>
+    <t>Weekend stay</t>
+  </si>
+  <si>
+    <t>Recent getaway trip to Denver to see a concert and stayed at the homestead in Aurora.  Never stayed at one before and found it to be very comfortable and well priced. Staff was accommodating and friendly, they provided me with information on many of their locations. I will be using their chain in the future and would recommend it to anyone. Thank you Homestead.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded February 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2013</t>
+  </si>
+  <si>
+    <t>Recent getaway trip to Denver to see a concert and stayed at the homestead in Aurora.  Never stayed at one before and found it to be very comfortable and well priced. Staff was accommodating and friendly, they provided me with information on many of their locations. I will be using their chain in the future and would recommend it to anyone. Thank you Homestead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r149765965-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>149765965</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>Excellent staff</t>
+  </si>
+  <si>
+    <t>My husband and I and 6 other family members stayed 3 day the weekend my son got married. The rooms where very clean and neat.The staff Lynzie ,Pam and Amanda helped us with everything that we needed from the time we checked in to the time we checked out. We will stay at this hotel again and I will refer my friends and family to stay here when they come into town. Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded January 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2013</t>
+  </si>
+  <si>
+    <t>My husband and I and 6 other family members stayed 3 day the weekend my son got married. The rooms where very clean and neat.The staff Lynzie ,Pam and Amanda helped us with everything that we needed from the time we checked in to the time we checked out. We will stay at this hotel again and I will refer my friends and family to stay here when they come into town. Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r148660477-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>148660477</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>S.Harris "Excellent  care at Homestead Studio Suites"</t>
+  </si>
+  <si>
+    <t>I am currently a guess at Homestead Studio Suites since July 2012. My stay here has been .wonder ,alone with the "EXCELLENT" staff that works so hard here. They have went above and beyond to make sure that my stay is comfortable. The staff here our very warm,caring,kind,understanding. I will refer family and friends to stay at this hotel.  "Thank You and have a blessed day"MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded January 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2013</t>
+  </si>
+  <si>
+    <t>I am currently a guess at Homestead Studio Suites since July 2012. My stay here has been .wonder ,alone with the "EXCELLENT" staff that works so hard here. They have went above and beyond to make sure that my stay is comfortable. The staff here our very warm,caring,kind,understanding. I will refer family and friends to stay at this hotel.  "Thank You and have a blessed day"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r148153550-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>148153550</t>
+  </si>
+  <si>
+    <t>12/27/2012</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Although I only stayed at the Homestead for a short period of time i was very impressed. Pam, Lindsey, and Amanda were very attentive and made my stay comfortable. The room was clean and well put together. After my stay here, I will certainly refer any friends and family to stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded December 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2012</t>
+  </si>
+  <si>
+    <t>Although I only stayed at the Homestead for a short period of time i was very impressed. Pam, Lindsey, and Amanda were very attentive and made my stay comfortable. The room was clean and well put together. After my stay here, I will certainly refer any friends and family to stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r147694760-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>147694760</t>
+  </si>
+  <si>
+    <t>12/18/2012</t>
+  </si>
+  <si>
+    <t>Customer Serivce &amp; Cleanliness</t>
+  </si>
+  <si>
+    <t>We live in the area but needed a place to call home while our kitchen was being renovated.  We were so pleased about the cleanliness of the property and our suite but it was the manager Pamela and her staff that made our stay feel like home away from home.  My husband and I would highly recommend Homestead Studio Suites Aurora, you will be pleasantly surprised by the ‘home’ feel and superb customer service.  Plus for those not from the area, Homestead is close to some of our favorite family restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded December 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2012</t>
+  </si>
+  <si>
+    <t>We live in the area but needed a place to call home while our kitchen was being renovated.  We were so pleased about the cleanliness of the property and our suite but it was the manager Pamela and her staff that made our stay feel like home away from home.  My husband and I would highly recommend Homestead Studio Suites Aurora, you will be pleasantly surprised by the ‘home’ feel and superb customer service.  Plus for those not from the area, Homestead is close to some of our favorite family restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r146717586-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>146717586</t>
+  </si>
+  <si>
+    <t>12/03/2012</t>
+  </si>
+  <si>
+    <t>I just want to say thank you to Pam, Lindsey and Amanda for all they do, they have made my stay at Homestead easy and have done everything to make my stay comfortable. I have been able to call it home for 7 monrhs and they have all been awesome. Thanks to all of you.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded December 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2012</t>
+  </si>
+  <si>
+    <t>I just want to say thank you to Pam, Lindsey and Amanda for all they do, they have made my stay at Homestead easy and have done everything to make my stay comfortable. I have been able to call it home for 7 monrhs and they have all been awesome. Thanks to all of you.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r145420294-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>145420294</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>The Best Homestead I've stayed at</t>
+  </si>
+  <si>
+    <t>Every time I stay here they go out of their way to make sure im comfy and have everything I need. I will always stay there when Im in Aurora.Ms.Pamala is the nicest manager I have know to work at a hotel, kind makes me feel like I'm visiting old friends or family when I stay there and speak with the staff.I really have nothing but great things to say about this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded November 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2012</t>
+  </si>
+  <si>
+    <t>Every time I stay here they go out of their way to make sure im comfy and have everything I need. I will always stay there when Im in Aurora.Ms.Pamala is the nicest manager I have know to work at a hotel, kind makes me feel like I'm visiting old friends or family when I stay there and speak with the staff.I really have nothing but great things to say about this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r142408370-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>142408370</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>home sweet home</t>
+  </si>
+  <si>
+    <t>Right now this is home to us ,we have been here almost 3 yrs. ,and have seen many improvements in the last year .New paint,new washer and dryers &amp; landscaping.Pam and Lindsey made us feel at home from the very first day we arrived.Being able to have our pets with us was very important to us and never a problem for them ! You have eveything you need all in a 5 mile radius ,restaurants,convenience stores,grocery stores, even a mall right up the road . With the full kitchen you can save a lot by doing your own cooking .If your staying long term or short this is the place to be, with the highway right next to us and the airport 10 mins away you can`t beat the location.So if your looking for a clean place with GREAT management and free WIFI check out Homestead studio suites,It`s home to me !!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded October 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2012</t>
+  </si>
+  <si>
+    <t>Right now this is home to us ,we have been here almost 3 yrs. ,and have seen many improvements in the last year .New paint,new washer and dryers &amp; landscaping.Pam and Lindsey made us feel at home from the very first day we arrived.Being able to have our pets with us was very important to us and never a problem for them ! You have eveything you need all in a 5 mile radius ,restaurants,convenience stores,grocery stores, even a mall right up the road . With the full kitchen you can save a lot by doing your own cooking .If your staying long term or short this is the place to be, with the highway right next to us and the airport 10 mins away you can`t beat the location.So if your looking for a clean place with GREAT management and free WIFI check out Homestead studio suites,It`s home to me !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r140114163-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>140114163</t>
+  </si>
+  <si>
+    <t>09/12/2012</t>
+  </si>
+  <si>
+    <t>AAA clean room</t>
+  </si>
+  <si>
+    <t>The clean room included a full-size fridge, microwave, stove top, toaster, pot, pan, plates, utensils, coffee-maker, and cups almost like home.  Our bed was a great serta and the flat screen tv was brand new. There are a lot of restaurants and a 7-11 across the street.  The highway on-ramp is right nearby and grocery stores are a short distance away.  If you are on a budget and staying more than a week they provide housekeeping once a week.  On the other days, you bring your used linen to the office to exchange for clean towels and sheets. You can borrow the vacuum to clean your room.  This is a quality budget hotel with an excellent staff.  If you want a 4-star hotel with daily housekeeping, concierge service and constant attention, i suggest you stay at a hilton or marriot.  I have stayed in many different hotels; there are cheapers hotels but none that were anywhere near as clean, safe or with a caring staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2012</t>
+  </si>
+  <si>
+    <t>The clean room included a full-size fridge, microwave, stove top, toaster, pot, pan, plates, utensils, coffee-maker, and cups almost like home.  Our bed was a great serta and the flat screen tv was brand new. There are a lot of restaurants and a 7-11 across the street.  The highway on-ramp is right nearby and grocery stores are a short distance away.  If you are on a budget and staying more than a week they provide housekeeping once a week.  On the other days, you bring your used linen to the office to exchange for clean towels and sheets. You can borrow the vacuum to clean your room.  This is a quality budget hotel with an excellent staff.  If you want a 4-star hotel with daily housekeeping, concierge service and constant attention, i suggest you stay at a hilton or marriot.  I have stayed in many different hotels; there are cheapers hotels but none that were anywhere near as clean, safe or with a caring staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r138822485-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>138822485</t>
+  </si>
+  <si>
+    <t>08/29/2012</t>
+  </si>
+  <si>
+    <t>Long Stay</t>
+  </si>
+  <si>
+    <t>We have been at this location for 18 months.  We found it on a list given to us by the Ronald McDonald House.  Upon checking in, we weren't exactly in the best of moods, but Lindsey still gave us a very warm welcome.  That was the start of our long stay.We have watched Pam, and her crew, work very hard on cleaning this property up.  That includes not just the front office, but housekeeping and maintenence as well.  They have replaced and repaired, gotten rid of undesirables, and turned it into a very warm, comfortable place to stay.  Want some coffee?  Go up to the office where there is almost always fresh coffee and someone to visit with.  Need a repair?  Report what needs fixed, and Lawrence will be happy to fix it for you.  Just want to visit for a few minutes?  Any person who works here will take a few minutes to visit.Although we are not in our home with our furniture, it's about the closest we will come to feeling we are a part of a community.  And that makes it feel like home.  We have had the oppurtunity to meet a lot of people from all over the states, and some from other countries.Bottom line is, I would not be afraid to recommend this establishment to friends and family.  What it lacks in oppulence, is more than made up for in hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Aurora South, responded to this reviewResponded September 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2012</t>
+  </si>
+  <si>
+    <t>We have been at this location for 18 months.  We found it on a list given to us by the Ronald McDonald House.  Upon checking in, we weren't exactly in the best of moods, but Lindsey still gave us a very warm welcome.  That was the start of our long stay.We have watched Pam, and her crew, work very hard on cleaning this property up.  That includes not just the front office, but housekeeping and maintenence as well.  They have replaced and repaired, gotten rid of undesirables, and turned it into a very warm, comfortable place to stay.  Want some coffee?  Go up to the office where there is almost always fresh coffee and someone to visit with.  Need a repair?  Report what needs fixed, and Lawrence will be happy to fix it for you.  Just want to visit for a few minutes?  Any person who works here will take a few minutes to visit.Although we are not in our home with our furniture, it's about the closest we will come to feeling we are a part of a community.  And that makes it feel like home.  We have had the oppurtunity to meet a lot of people from all over the states, and some from other countries.Bottom line is, I would not be afraid to recommend this establishment to friends and family.  What it lacks in oppulence, is more than made up for in hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r131964118-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>131964118</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>I thoughly enjoyed my stay at the homestead in aurora. I found that the staff was very helpful and friendly. I found the the rooms where clean and very wel stocked. I have stayed in many hotels over the years and found that this one was very compairable. I would stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>I thoughly enjoyed my stay at the homestead in aurora. I found that the staff was very helpful and friendly. I found the the rooms where clean and very wel stocked. I have stayed in many hotels over the years and found that this one was very compairable. I would stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r130067283-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>130067283</t>
+  </si>
+  <si>
+    <t>05/16/2012</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>I came in 3 hours before check-in time, and Elke was very helpful in getting me into the room upon my arrival.  Initially, I didn't think it was a bad place...there were a lot of out-of-state vehicles (I'm from here), and the room looked pretty tidy.  As the day went on tho, I noticed the cigarette burns all over the bedding in my non-smoking room, the smell of mildew got really strong, my 1 yr old's socks were black they were so filthy from walking around on the carpet, I could hear people having sex next door, and by the sound of the man, it wasn't the same one, prostitutes/pimps/druggies walked the parking lot into the evening, it sounded like the person above me was drunk dancing w the chairs all night, and by morning my back hurt so bad from the crappy matresses.  I didn't get a good online deal (it was $10 CHEAPER to get it directly through Homestead), so that made it sting just a little bit more.  If you're just stopping through for the night, its a reasonable place, but if you're having to have an actual extended stay, I'd advise somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>I came in 3 hours before check-in time, and Elke was very helpful in getting me into the room upon my arrival.  Initially, I didn't think it was a bad place...there were a lot of out-of-state vehicles (I'm from here), and the room looked pretty tidy.  As the day went on tho, I noticed the cigarette burns all over the bedding in my non-smoking room, the smell of mildew got really strong, my 1 yr old's socks were black they were so filthy from walking around on the carpet, I could hear people having sex next door, and by the sound of the man, it wasn't the same one, prostitutes/pimps/druggies walked the parking lot into the evening, it sounded like the person above me was drunk dancing w the chairs all night, and by morning my back hurt so bad from the crappy matresses.  I didn't get a good online deal (it was $10 CHEAPER to get it directly through Homestead), so that made it sting just a little bit more.  If you're just stopping through for the night, its a reasonable place, but if you're having to have an actual extended stay, I'd advise somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r129460123-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>129460123</t>
+  </si>
+  <si>
+    <t>05/06/2012</t>
+  </si>
+  <si>
+    <t>My night in hotel hell.</t>
+  </si>
+  <si>
+    <t>Upon my arrival, there was no one in the lobby. The lobby started to fill up and 20 min later the attendant showed up after he was phoned twice. The guests had music blaring from their cars while they were outside smoking. I checked in, went to room 226 and couldn't get into the room , due a chair being in front of the door. The room was filthy. There was trash on the floor, the drawers were all open. I returned to the front desk and explained my findings. I was told someone probably broke in or the marked the room as clean and it wasn't. He said they do that sometimes. I had my 9 month with me and was not wanting to stay somewhere like that. I asked if I could be transferred to another location. I was told I couldn't because I booked through kayak. I was given another room. Upon first look seemed ok. There was NO towels in the the room the,shower had dirty footprints in it. The couch was stained and smelly. I was concerned about sleeping in the bed and started to check for bed bugs. To my relief I didn't find any. I did however find a hoop earrings in the bedding along with crumbs. At this point I was through and wanted to leave, I called the front desk and for no answer. I latest out my sobs baby blanket...Upon my arrival, there was no one in the lobby. The lobby started to fill up and 20 min later the attendant showed up after he was phoned twice. The guests had music blaring from their cars while they were outside smoking. I checked in, went to room 226 and couldn't get into the room , due a chair being in front of the door. The room was filthy. There was trash on the floor, the drawers were all open. I returned to the front desk and explained my findings. I was told someone probably broke in or the marked the room as clean and it wasn't. He said they do that sometimes. I had my 9 month with me and was not wanting to stay somewhere like that. I asked if I could be transferred to another location. I was told I couldn't because I booked through kayak. I was given another room. Upon first look seemed ok. There was NO towels in the the room the,shower had dirty footprints in it. The couch was stained and smelly. I was concerned about sleeping in the bed and started to check for bed bugs. To my relief I didn't find any. I did however find a hoop earrings in the bedding along with crumbs. At this point I was through and wanted to leave, I called the front desk and for no answer. I latest out my sobs baby blanket and slept on that and he slept in his car seat because I was scared to lay him anywhere in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon my arrival, there was no one in the lobby. The lobby started to fill up and 20 min later the attendant showed up after he was phoned twice. The guests had music blaring from their cars while they were outside smoking. I checked in, went to room 226 and couldn't get into the room , due a chair being in front of the door. The room was filthy. There was trash on the floor, the drawers were all open. I returned to the front desk and explained my findings. I was told someone probably broke in or the marked the room as clean and it wasn't. He said they do that sometimes. I had my 9 month with me and was not wanting to stay somewhere like that. I asked if I could be transferred to another location. I was told I couldn't because I booked through kayak. I was given another room. Upon first look seemed ok. There was NO towels in the the room the,shower had dirty footprints in it. The couch was stained and smelly. I was concerned about sleeping in the bed and started to check for bed bugs. To my relief I didn't find any. I did however find a hoop earrings in the bedding along with crumbs. At this point I was through and wanted to leave, I called the front desk and for no answer. I latest out my sobs baby blanket...Upon my arrival, there was no one in the lobby. The lobby started to fill up and 20 min later the attendant showed up after he was phoned twice. The guests had music blaring from their cars while they were outside smoking. I checked in, went to room 226 and couldn't get into the room , due a chair being in front of the door. The room was filthy. There was trash on the floor, the drawers were all open. I returned to the front desk and explained my findings. I was told someone probably broke in or the marked the room as clean and it wasn't. He said they do that sometimes. I had my 9 month with me and was not wanting to stay somewhere like that. I asked if I could be transferred to another location. I was told I couldn't because I booked through kayak. I was given another room. Upon first look seemed ok. There was NO towels in the the room the,shower had dirty footprints in it. The couch was stained and smelly. I was concerned about sleeping in the bed and started to check for bed bugs. To my relief I didn't find any. I did however find a hoop earrings in the bedding along with crumbs. At this point I was through and wanted to leave, I called the front desk and for no answer. I latest out my sobs baby blanket and slept on that and he slept in his car seat because I was scared to lay him anywhere in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r128028622-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>128028622</t>
+  </si>
+  <si>
+    <t>04/16/2012</t>
+  </si>
+  <si>
+    <t>A wounderful stay</t>
+  </si>
+  <si>
+    <t>Road trip from Wyoming to New  Mexico noticed sign never even heard of Homestead before. Was greeted st front desk  by a very welcoming friendly young lady she was very helpful with suggestions and directions for places to eat dinner. The Manager came from her office introduced herself welcomed us said she was going to check our room to make sure it was ready for us. the room was comfortable and clean the price was right. Great staff  we will be back.M.SchultzMoreShow less</t>
+  </si>
+  <si>
+    <t>Road trip from Wyoming to New  Mexico noticed sign never even heard of Homestead before. Was greeted st front desk  by a very welcoming friendly young lady she was very helpful with suggestions and directions for places to eat dinner. The Manager came from her office introduced herself welcomed us said she was going to check our room to make sure it was ready for us. the room was comfortable and clean the price was right. Great staff  we will be back.M.SchultzMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r126150619-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>126150619</t>
+  </si>
+  <si>
+    <t>03/15/2012</t>
+  </si>
+  <si>
+    <t>Good accommodation for the price, Good choice to stay in</t>
+  </si>
+  <si>
+    <t>The Homestead Denver/Aurora provides good accommodation for the price and would be a good choice to stay in.
+Location:
+ - Great location
+ - Approximately 20-25 minute commute from/to Denver International Airport
+ - Easy access to I-225 (and other major routes) and Denver
+ - Close to public transportation (bus and Light Rail service), shopping areas, cinemas, 
+   restaurants, and nearby tourist attractions in Denver and neighboring cities
+ - Only a short drive away from neighboring cities such as Boulder, Colorado Springs, 
+   Estes Park, Georgetown, Vail
+Room:
+ - The room that I stayed in was a standard queen
+ - Amenities provided met my expectations and needs
+   What I liked about the room:
+   - It was clean and comfortable
+   - It had free wireless Internet hookup, basic cable with two movie channels (Showtime)
+   - It had a fully-equipped kitchen area with a full-sized refrigerator, two burner stove top and 
+     microwave
+   - The bed was comfortable
+   - It had a small work/eating area
+   - It had extra seating (a lounge chair)
+   - It was near the on-premises laundry facility
+   What I didn't like about the room:
+   - The refrigerator (it was noisy whenever it cycled)
+Customer Service:
+ - Excellent!
+Staff:
+ - Great staff, treats you like family!
+ - Management and front desk staff at this location (Pam, Lynzie, Amanda, Elke, Bill) were/are 
+   very professional, friendly and courteous. They project a high quality image of both 
+   themselves and the hotel and company for which they work...The Homestead Denver/Aurora provides good accommodation for the price and would be a good choice to stay in.Location: - Great location - Approximately 20-25 minute commute from/to Denver International Airport - Easy access to I-225 (and other major routes) and Denver - Close to public transportation (bus and Light Rail service), shopping areas, cinemas,    restaurants, and nearby tourist attractions in Denver and neighboring cities - Only a short drive away from neighboring cities such as Boulder, Colorado Springs,    Estes Park, Georgetown, VailRoom: - The room that I stayed in was a standard queen - Amenities provided met my expectations and needs   What I liked about the room:   - It was clean and comfortable   - It had free wireless Internet hookup, basic cable with two movie channels (Showtime)   - It had a fully-equipped kitchen area with a full-sized refrigerator, two burner stove top and      microwave   - The bed was comfortable   - It had a small work/eating area   - It had extra seating (a lounge chair)   - It was near the on-premises laundry facility   What I didn't like about the room:   - The refrigerator (it was noisy whenever it cycled)Customer Service: - Excellent!Staff: - Great staff, treats you like family! - Management and front desk staff at this location (Pam, Lynzie, Amanda, Elke, Bill) were/are    very professional, friendly and courteous. They project a high quality image of both    themselves and the hotel and company for which they work for - One of the main reasons I would stay here again and/or would recommend staying here - Little extras like mentioning good restaurants to eat at nearby or the best way to get to    shopping centers or other places of interest were always welcome.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>The Homestead Denver/Aurora provides good accommodation for the price and would be a good choice to stay in.
+Location:
+ - Great location
+ - Approximately 20-25 minute commute from/to Denver International Airport
+ - Easy access to I-225 (and other major routes) and Denver
+ - Close to public transportation (bus and Light Rail service), shopping areas, cinemas, 
+   restaurants, and nearby tourist attractions in Denver and neighboring cities
+ - Only a short drive away from neighboring cities such as Boulder, Colorado Springs, 
+   Estes Park, Georgetown, Vail
+Room:
+ - The room that I stayed in was a standard queen
+ - Amenities provided met my expectations and needs
+   What I liked about the room:
+   - It was clean and comfortable
+   - It had free wireless Internet hookup, basic cable with two movie channels (Showtime)
+   - It had a fully-equipped kitchen area with a full-sized refrigerator, two burner stove top and 
+     microwave
+   - The bed was comfortable
+   - It had a small work/eating area
+   - It had extra seating (a lounge chair)
+   - It was near the on-premises laundry facility
+   What I didn't like about the room:
+   - The refrigerator (it was noisy whenever it cycled)
+Customer Service:
+ - Excellent!
+Staff:
+ - Great staff, treats you like family!
+ - Management and front desk staff at this location (Pam, Lynzie, Amanda, Elke, Bill) were/are 
+   very professional, friendly and courteous. They project a high quality image of both 
+   themselves and the hotel and company for which they work...The Homestead Denver/Aurora provides good accommodation for the price and would be a good choice to stay in.Location: - Great location - Approximately 20-25 minute commute from/to Denver International Airport - Easy access to I-225 (and other major routes) and Denver - Close to public transportation (bus and Light Rail service), shopping areas, cinemas,    restaurants, and nearby tourist attractions in Denver and neighboring cities - Only a short drive away from neighboring cities such as Boulder, Colorado Springs,    Estes Park, Georgetown, VailRoom: - The room that I stayed in was a standard queen - Amenities provided met my expectations and needs   What I liked about the room:   - It was clean and comfortable   - It had free wireless Internet hookup, basic cable with two movie channels (Showtime)   - It had a fully-equipped kitchen area with a full-sized refrigerator, two burner stove top and      microwave   - The bed was comfortable   - It had a small work/eating area   - It had extra seating (a lounge chair)   - It was near the on-premises laundry facility   What I didn't like about the room:   - The refrigerator (it was noisy whenever it cycled)Customer Service: - Excellent!Staff: - Great staff, treats you like family! - Management and front desk staff at this location (Pam, Lynzie, Amanda, Elke, Bill) were/are    very professional, friendly and courteous. They project a high quality image of both    themselves and the hotel and company for which they work for - One of the main reasons I would stay here again and/or would recommend staying here - Little extras like mentioning good restaurants to eat at nearby or the best way to get to    shopping centers or other places of interest were always welcome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r125757621-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>125757621</t>
+  </si>
+  <si>
+    <t>03/07/2012</t>
+  </si>
+  <si>
+    <t>GREAT STAY WIlL ALWAYS RETURN</t>
+  </si>
+  <si>
+    <t>I am a guest that is currently staying at this location the staff is EXCELLENT, Courteous, and very accomadating. The price is excellent, i love this location. Couldnt say anymore great things about this location. They treat  me as part of their family.Thanks Mike</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r119399158-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>119399158</t>
+  </si>
+  <si>
+    <t>10/17/2011</t>
+  </si>
+  <si>
+    <t>nice little studio</t>
+  </si>
+  <si>
+    <t>They were very accommodating to our request for a room away from families with children since we were hauling a snowmobile and didn't want 'little fingers' touching and getting hurt.We had a room in the back and felt it was peaceful and secure.   The kitchenette was a nice added touch.  We had a pizza delivered (which was reasonable and delicious) and was able to utilize the dishes that are supplied.  Had a small coffee maker with only one package of coffee so my husband and I had to fight for it.  The a/c unit was a little noisy but it was something I could live with.  I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>They were very accommodating to our request for a room away from families with children since we were hauling a snowmobile and didn't want 'little fingers' touching and getting hurt.We had a room in the back and felt it was peaceful and secure.   The kitchenette was a nice added touch.  We had a pizza delivered (which was reasonable and delicious) and was able to utilize the dishes that are supplied.  Had a small coffee maker with only one package of coffee so my husband and I had to fight for it.  The a/c unit was a little noisy but it was something I could live with.  I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r118796627-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>118796627</t>
+  </si>
+  <si>
+    <t>09/30/2011</t>
+  </si>
+  <si>
+    <t>Best hotel for the price.</t>
+  </si>
+  <si>
+    <t>We loved the clean room, full fridge and microwave.  The staff was courteous and helpful in giving us directions to nearby locations.  Good restaurants in the vicinity and a block from the interstate.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r115424873-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>115424873</t>
+  </si>
+  <si>
+    <t>07/16/2011</t>
+  </si>
+  <si>
+    <t>"Stay in your car!!!  It must be cleaner</t>
+  </si>
+  <si>
+    <t>We checked in on 6/28/2011 and checked out 7/5/2011.  If there had been any other hotel/motel open to accommodate us we would have never stayed at Homestead at all.  Following is a list of all the problems:
+Our original reservation was for a 2 bed suite and a single queen room and we were to arrive on 6/27/2011, but I called on 6/25/2011 and informed Homestead that we would not be arriving until 6/28/2011 and was told “no problem”  BIG LIE!!  When we arrive on the 28th the single queen reservation was OK, the suite had been cancelled.  The person I spoke with changed the reservations on one of the rooms but not on the second room.  I gave the person both reservation numbers.  I was sent emails confirming the change on both rooms….however the person I spoke with and sent me the email only changed the reservation on one room.  When we didn’t show up on the 27th I was charged a “no show” and the room was cancelled.  When I first arrived the young man at the front desk was totally uncooperative.  He did not try to help me out in any way.  The front desk manager, Amanda, was a little more helpful and found us a room.   She found a 2 bed suite that we could have.  We had to wait to check in until past 5 PM as neither of the rooms were ready when we...We checked in on 6/28/2011 and checked out 7/5/2011.  If there had been any other hotel/motel open to accommodate us we would have never stayed at Homestead at all.  Following is a list of all the problems:Our original reservation was for a 2 bed suite and a single queen room and we were to arrive on 6/27/2011, but I called on 6/25/2011 and informed Homestead that we would not be arriving until 6/28/2011 and was told “no problem”  BIG LIE!!  When we arrive on the 28th the single queen reservation was OK, the suite had been cancelled.  The person I spoke with changed the reservations on one of the rooms but not on the second room.  I gave the person both reservation numbers.  I was sent emails confirming the change on both rooms….however the person I spoke with and sent me the email only changed the reservation on one room.  When we didn’t show up on the 27th I was charged a “no show” and the room was cancelled.  When I first arrived the young man at the front desk was totally uncooperative.  He did not try to help me out in any way.  The front desk manager, Amanda, was a little more helpful and found us a room.   She found a 2 bed suite that we could have.  We had to wait to check in until past 5 PM as neither of the rooms were ready when we arrived at about 3:30 PM.  The single queen room was a palace compared to the suite.  The place reeked of cigarette smoke the whole time we were there, although we had requested a non-smoking unit. The single queen carpets were filthy!!    After showering and walking on the floors and carpet my feet had to be washed before I was able to go to bed.  There was very little silverware, no spoons at all.  The air conditioner leaked water the whole time.  The fridge also leaked water.  Everything on the shelf got wet.  If we turned the fridge up everything froze.  Now on to the suite…. the sofa bed was broken and there were no linens for the bed.  There was trash behind the bed and sofa bed.  There were cracker crumbs in the mattress of the sofa bed.  There were flies all over the room.  When we complained about the sofa bed and the filth we were told they had a new sofa bed and would put it in the suite.  They also said they would clean the suite.  When we left that morning there were dead flies on the counter top and when we returned (after they had done a good cleaning) there were still dead flies on the counter in the same spot.  They did not have a new sofa bed so the children had to sleep on a broken bed again.  Each day we were told that they would replace the sofa bed, which was never done.  Again the carpets were filthy, ones feet turned black after walking across the carpet barefoot.  The carpet was thread-bear.  The shower curtain rod fell down.  The door was very hard to open.  The iron on its lowest setting scorched clothes and the coating on the iron came off on the clothing.  The refrigerator leaked.  There was no closet door.  There were holes in the screens.  There was no filter for the coffee pot.  There was no cook ware and no utensils.  When we went to trade our towels for fresh towels we had to wait until 9:15 PM.  When we asked how we were suppose to give our babies baths and dry them the desk clerk said “just use hand towels”.   When we checked in we were told that we would have housekeeping on Saturday.  The single queen did get housekeeping that day, however the suite NEVER did get housekeeping.  The ONLY reason we stayed is because there was a girls softball tournment and all other places were booked.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We checked in on 6/28/2011 and checked out 7/5/2011.  If there had been any other hotel/motel open to accommodate us we would have never stayed at Homestead at all.  Following is a list of all the problems:
+Our original reservation was for a 2 bed suite and a single queen room and we were to arrive on 6/27/2011, but I called on 6/25/2011 and informed Homestead that we would not be arriving until 6/28/2011 and was told “no problem”  BIG LIE!!  When we arrive on the 28th the single queen reservation was OK, the suite had been cancelled.  The person I spoke with changed the reservations on one of the rooms but not on the second room.  I gave the person both reservation numbers.  I was sent emails confirming the change on both rooms….however the person I spoke with and sent me the email only changed the reservation on one room.  When we didn’t show up on the 27th I was charged a “no show” and the room was cancelled.  When I first arrived the young man at the front desk was totally uncooperative.  He did not try to help me out in any way.  The front desk manager, Amanda, was a little more helpful and found us a room.   She found a 2 bed suite that we could have.  We had to wait to check in until past 5 PM as neither of the rooms were ready when we...We checked in on 6/28/2011 and checked out 7/5/2011.  If there had been any other hotel/motel open to accommodate us we would have never stayed at Homestead at all.  Following is a list of all the problems:Our original reservation was for a 2 bed suite and a single queen room and we were to arrive on 6/27/2011, but I called on 6/25/2011 and informed Homestead that we would not be arriving until 6/28/2011 and was told “no problem”  BIG LIE!!  When we arrive on the 28th the single queen reservation was OK, the suite had been cancelled.  The person I spoke with changed the reservations on one of the rooms but not on the second room.  I gave the person both reservation numbers.  I was sent emails confirming the change on both rooms….however the person I spoke with and sent me the email only changed the reservation on one room.  When we didn’t show up on the 27th I was charged a “no show” and the room was cancelled.  When I first arrived the young man at the front desk was totally uncooperative.  He did not try to help me out in any way.  The front desk manager, Amanda, was a little more helpful and found us a room.   She found a 2 bed suite that we could have.  We had to wait to check in until past 5 PM as neither of the rooms were ready when we arrived at about 3:30 PM.  The single queen room was a palace compared to the suite.  The place reeked of cigarette smoke the whole time we were there, although we had requested a non-smoking unit. The single queen carpets were filthy!!    After showering and walking on the floors and carpet my feet had to be washed before I was able to go to bed.  There was very little silverware, no spoons at all.  The air conditioner leaked water the whole time.  The fridge also leaked water.  Everything on the shelf got wet.  If we turned the fridge up everything froze.  Now on to the suite…. the sofa bed was broken and there were no linens for the bed.  There was trash behind the bed and sofa bed.  There were cracker crumbs in the mattress of the sofa bed.  There were flies all over the room.  When we complained about the sofa bed and the filth we were told they had a new sofa bed and would put it in the suite.  They also said they would clean the suite.  When we left that morning there were dead flies on the counter top and when we returned (after they had done a good cleaning) there were still dead flies on the counter in the same spot.  They did not have a new sofa bed so the children had to sleep on a broken bed again.  Each day we were told that they would replace the sofa bed, which was never done.  Again the carpets were filthy, ones feet turned black after walking across the carpet barefoot.  The carpet was thread-bear.  The shower curtain rod fell down.  The door was very hard to open.  The iron on its lowest setting scorched clothes and the coating on the iron came off on the clothing.  The refrigerator leaked.  There was no closet door.  There were holes in the screens.  There was no filter for the coffee pot.  There was no cook ware and no utensils.  When we went to trade our towels for fresh towels we had to wait until 9:15 PM.  When we asked how we were suppose to give our babies baths and dry them the desk clerk said “just use hand towels”.   When we checked in we were told that we would have housekeeping on Saturday.  The single queen did get housekeeping that day, however the suite NEVER did get housekeeping.  The ONLY reason we stayed is because there was a girls softball tournment and all other places were booked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r43724516-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>43724516</t>
+  </si>
+  <si>
+    <t>09/22/2009</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>For anyone who stays in this hotel please make sure you look through your bed.  Our room had bed bugs and now we are going through a miserable time.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r37314831-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>37314831</t>
+  </si>
+  <si>
+    <t>08/10/2009</t>
+  </si>
+  <si>
+    <t>The good, The bad and The moldy</t>
+  </si>
+  <si>
+    <t>Check in service was great &amp; they brought us 2 more pillows upon request. Great location, close to 1-225. The room was dirty &amp; smelled like cigarettes! There were cig. burns all over the bathroom counter even though I requested a non smoking room. We found hair of ALL kinds on the bed comforter, glue trap under the kitchen sink &amp; white stains on the chairs. The shower curtain had 5 inches of black mold at the bottom!! A card in the room said that the prior residents have to clean the dishes, silverware, etc not the hotel cleaning service! Good price for a 4 day stay &amp; the kitchen was a life saver but that's it!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>Check in service was great &amp; they brought us 2 more pillows upon request. Great location, close to 1-225. The room was dirty &amp; smelled like cigarettes! There were cig. burns all over the bathroom counter even though I requested a non smoking room. We found hair of ALL kinds on the bed comforter, glue trap under the kitchen sink &amp; white stains on the chairs. The shower curtain had 5 inches of black mold at the bottom!! A card in the room said that the prior residents have to clean the dishes, silverware, etc not the hotel cleaning service! Good price for a 4 day stay &amp; the kitchen was a life saver but that's it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r37305001-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>37305001</t>
+  </si>
+  <si>
+    <t>This place is gross!</t>
+  </si>
+  <si>
+    <t>My girlfriend and I booked this place through Orbitz.  The check in process was quick and easy and the desk clerk was very polite.  That's pretty much where the postive experience ended.  The room stunk like cigarette smoke even though we requested a non-smoking room and there were no less than 20 cigarette burns on the bathroom sink area.  The bottom 5 inches of the shower curtain was covered in black mold.  We found hairs everywhere including what appeared to be pubic hairs in the sheets.  Despite the infamous glue trap mentioned in a previous review I had a small beetle crawl up my arm while reading a book in bed the first night.  Do yourself a favor and steer clear of this dump.MoreShow less</t>
+  </si>
+  <si>
+    <t>My girlfriend and I booked this place through Orbitz.  The check in process was quick and easy and the desk clerk was very polite.  That's pretty much where the postive experience ended.  The room stunk like cigarette smoke even though we requested a non-smoking room and there were no less than 20 cigarette burns on the bathroom sink area.  The bottom 5 inches of the shower curtain was covered in black mold.  We found hairs everywhere including what appeared to be pubic hairs in the sheets.  Despite the infamous glue trap mentioned in a previous review I had a small beetle crawl up my arm while reading a book in bed the first night.  Do yourself a favor and steer clear of this dump.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d119984-r24787637-Extended_Stay_America_Denver_Aurora_South-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>24787637</t>
+  </si>
+  <si>
+    <t>02/19/2009</t>
+  </si>
+  <si>
+    <t>Good choice for longer stays</t>
+  </si>
+  <si>
+    <t>Stayed here while I was looking for an apartment. Very friendly and helpful staff. Nothing fancy but the room was clean, comfortable, and reasonably priced. Included dishes and cookware in addition to fridge, microwave, stove, and toaster. Nice guest laundry room with multiple machines. Easy access to I-225.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2717,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2749,6092 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s">
+        <v>182</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>182</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" t="s">
+        <v>193</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s">
+        <v>195</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>196</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>197</v>
+      </c>
+      <c r="X19" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>205</v>
+      </c>
+      <c r="O20" t="s">
+        <v>182</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O21" t="s">
+        <v>182</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>211</v>
+      </c>
+      <c r="X21" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O22" t="s">
+        <v>219</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>182</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>243</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>244</v>
+      </c>
+      <c r="X26" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>252</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>244</v>
+      </c>
+      <c r="X27" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>255</v>
+      </c>
+      <c r="J28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28" t="s">
+        <v>257</v>
+      </c>
+      <c r="L28" t="s">
+        <v>258</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>252</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>259</v>
+      </c>
+      <c r="X28" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>262</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>263</v>
+      </c>
+      <c r="J29" t="s">
+        <v>264</v>
+      </c>
+      <c r="K29" t="s">
+        <v>265</v>
+      </c>
+      <c r="L29" t="s">
+        <v>266</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>267</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>268</v>
+      </c>
+      <c r="X29" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>267</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>282</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>285</v>
+      </c>
+      <c r="J32" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" t="s">
+        <v>287</v>
+      </c>
+      <c r="L32" t="s">
+        <v>288</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>282</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>289</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>290</v>
+      </c>
+      <c r="J33" t="s">
+        <v>291</v>
+      </c>
+      <c r="K33" t="s">
+        <v>292</v>
+      </c>
+      <c r="L33" t="s">
+        <v>293</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>294</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>295</v>
+      </c>
+      <c r="X33" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s">
+        <v>302</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>303</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>304</v>
+      </c>
+      <c r="X34" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" t="s">
+        <v>310</v>
+      </c>
+      <c r="L35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>317</v>
+      </c>
+      <c r="X36" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>321</v>
+      </c>
+      <c r="J37" t="s">
+        <v>322</v>
+      </c>
+      <c r="K37" t="s">
+        <v>323</v>
+      </c>
+      <c r="L37" t="s">
+        <v>324</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>325</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>326</v>
+      </c>
+      <c r="X37" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>330</v>
+      </c>
+      <c r="J38" t="s">
+        <v>331</v>
+      </c>
+      <c r="K38" t="s">
+        <v>332</v>
+      </c>
+      <c r="L38" t="s">
+        <v>333</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>334</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>336</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>337</v>
+      </c>
+      <c r="J39" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" t="s">
+        <v>339</v>
+      </c>
+      <c r="L39" t="s">
+        <v>340</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>341</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>342</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>343</v>
+      </c>
+      <c r="J40" t="s">
+        <v>344</v>
+      </c>
+      <c r="K40" t="s">
+        <v>345</v>
+      </c>
+      <c r="L40" t="s">
+        <v>346</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>334</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>348</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>349</v>
+      </c>
+      <c r="J41" t="s">
+        <v>350</v>
+      </c>
+      <c r="K41" t="s">
+        <v>351</v>
+      </c>
+      <c r="L41" t="s">
+        <v>352</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>353</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>354</v>
+      </c>
+      <c r="X41" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>357</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>358</v>
+      </c>
+      <c r="J42" t="s">
+        <v>359</v>
+      </c>
+      <c r="K42" t="s">
+        <v>360</v>
+      </c>
+      <c r="L42" t="s">
+        <v>361</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>362</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>363</v>
+      </c>
+      <c r="X42" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>367</v>
+      </c>
+      <c r="J43" t="s">
+        <v>368</v>
+      </c>
+      <c r="K43" t="s">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>362</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>371</v>
+      </c>
+      <c r="X43" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>374</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>375</v>
+      </c>
+      <c r="J44" t="s">
+        <v>376</v>
+      </c>
+      <c r="K44" t="s">
+        <v>377</v>
+      </c>
+      <c r="L44" t="s">
+        <v>378</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>362</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>379</v>
+      </c>
+      <c r="X44" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>382</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>383</v>
+      </c>
+      <c r="J45" t="s">
+        <v>376</v>
+      </c>
+      <c r="K45" t="s">
+        <v>384</v>
+      </c>
+      <c r="L45" t="s">
+        <v>385</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>362</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>379</v>
+      </c>
+      <c r="X45" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>387</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>388</v>
+      </c>
+      <c r="J46" t="s">
+        <v>389</v>
+      </c>
+      <c r="K46" t="s">
+        <v>390</v>
+      </c>
+      <c r="L46" t="s">
+        <v>391</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>393</v>
+      </c>
+      <c r="J47" t="s">
+        <v>394</v>
+      </c>
+      <c r="K47" t="s">
+        <v>395</v>
+      </c>
+      <c r="L47" t="s">
+        <v>396</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>341</v>
+      </c>
+      <c r="O47" t="s">
+        <v>219</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>397</v>
+      </c>
+      <c r="X47" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>400</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>401</v>
+      </c>
+      <c r="J48" t="s">
+        <v>402</v>
+      </c>
+      <c r="K48" t="s">
+        <v>403</v>
+      </c>
+      <c r="L48" t="s">
+        <v>404</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>341</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>405</v>
+      </c>
+      <c r="X48" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>408</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>409</v>
+      </c>
+      <c r="J49" t="s">
+        <v>410</v>
+      </c>
+      <c r="K49" t="s">
+        <v>411</v>
+      </c>
+      <c r="L49" t="s">
+        <v>412</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>413</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>414</v>
+      </c>
+      <c r="X49" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>418</v>
+      </c>
+      <c r="J50" t="s">
+        <v>419</v>
+      </c>
+      <c r="K50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L50" t="s">
+        <v>421</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>422</v>
+      </c>
+      <c r="X50" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>425</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>426</v>
+      </c>
+      <c r="J51" t="s">
+        <v>427</v>
+      </c>
+      <c r="K51" t="s">
+        <v>428</v>
+      </c>
+      <c r="L51" t="s">
+        <v>429</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>430</v>
+      </c>
+      <c r="X51" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>433</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>434</v>
+      </c>
+      <c r="J52" t="s">
+        <v>435</v>
+      </c>
+      <c r="K52" t="s">
+        <v>436</v>
+      </c>
+      <c r="L52" t="s">
+        <v>437</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>438</v>
+      </c>
+      <c r="O52" t="s">
+        <v>182</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>439</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>440</v>
+      </c>
+      <c r="J53" t="s">
+        <v>441</v>
+      </c>
+      <c r="K53" t="s">
+        <v>442</v>
+      </c>
+      <c r="L53" t="s">
+        <v>443</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>444</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>445</v>
+      </c>
+      <c r="X53" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>448</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>449</v>
+      </c>
+      <c r="J54" t="s">
+        <v>450</v>
+      </c>
+      <c r="K54" t="s">
+        <v>451</v>
+      </c>
+      <c r="L54" t="s">
+        <v>452</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>445</v>
+      </c>
+      <c r="X54" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>454</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>455</v>
+      </c>
+      <c r="J55" t="s">
+        <v>456</v>
+      </c>
+      <c r="K55" t="s">
+        <v>457</v>
+      </c>
+      <c r="L55" t="s">
+        <v>458</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>444</v>
+      </c>
+      <c r="O55" t="s">
+        <v>182</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>445</v>
+      </c>
+      <c r="X55" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>460</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>461</v>
+      </c>
+      <c r="J56" t="s">
+        <v>462</v>
+      </c>
+      <c r="K56" t="s">
+        <v>463</v>
+      </c>
+      <c r="L56" t="s">
+        <v>464</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>465</v>
+      </c>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>466</v>
+      </c>
+      <c r="X56" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>469</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>470</v>
+      </c>
+      <c r="J57" t="s">
+        <v>471</v>
+      </c>
+      <c r="K57" t="s">
+        <v>472</v>
+      </c>
+      <c r="L57" t="s">
+        <v>473</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>474</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>475</v>
+      </c>
+      <c r="J58" t="s">
+        <v>476</v>
+      </c>
+      <c r="K58" t="s">
+        <v>477</v>
+      </c>
+      <c r="L58" t="s">
+        <v>478</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>479</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>480</v>
+      </c>
+      <c r="J59" t="s">
+        <v>481</v>
+      </c>
+      <c r="K59" t="s">
+        <v>482</v>
+      </c>
+      <c r="L59" t="s">
+        <v>483</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>484</v>
+      </c>
+      <c r="O59" t="s">
+        <v>182</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>486</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>487</v>
+      </c>
+      <c r="J60" t="s">
+        <v>488</v>
+      </c>
+      <c r="K60" t="s">
+        <v>489</v>
+      </c>
+      <c r="L60" t="s">
+        <v>490</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>491</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>492</v>
+      </c>
+      <c r="X60" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>495</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>496</v>
+      </c>
+      <c r="J61" t="s">
+        <v>497</v>
+      </c>
+      <c r="K61" t="s">
+        <v>498</v>
+      </c>
+      <c r="L61" t="s">
+        <v>499</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>500</v>
+      </c>
+      <c r="O61" t="s">
+        <v>182</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>501</v>
+      </c>
+      <c r="X61" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>504</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>505</v>
+      </c>
+      <c r="J62" t="s">
+        <v>506</v>
+      </c>
+      <c r="K62" t="s">
+        <v>507</v>
+      </c>
+      <c r="L62" t="s">
+        <v>508</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>509</v>
+      </c>
+      <c r="O62" t="s">
+        <v>72</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>510</v>
+      </c>
+      <c r="X62" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>513</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>514</v>
+      </c>
+      <c r="J63" t="s">
+        <v>506</v>
+      </c>
+      <c r="K63" t="s">
+        <v>515</v>
+      </c>
+      <c r="L63" t="s">
+        <v>516</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>517</v>
+      </c>
+      <c r="X63" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>519</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>520</v>
+      </c>
+      <c r="J64" t="s">
+        <v>521</v>
+      </c>
+      <c r="K64" t="s">
+        <v>522</v>
+      </c>
+      <c r="L64" t="s">
+        <v>523</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>509</v>
+      </c>
+      <c r="O64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>524</v>
+      </c>
+      <c r="X64" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>527</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>528</v>
+      </c>
+      <c r="J65" t="s">
+        <v>529</v>
+      </c>
+      <c r="K65" t="s">
+        <v>530</v>
+      </c>
+      <c r="L65" t="s">
+        <v>531</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>491</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>532</v>
+      </c>
+      <c r="X65" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>535</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>536</v>
+      </c>
+      <c r="J66" t="s">
+        <v>537</v>
+      </c>
+      <c r="K66" t="s">
+        <v>538</v>
+      </c>
+      <c r="L66" t="s">
+        <v>539</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>540</v>
+      </c>
+      <c r="O66" t="s">
+        <v>182</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>541</v>
+      </c>
+      <c r="X66" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>544</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>545</v>
+      </c>
+      <c r="J67" t="s">
+        <v>546</v>
+      </c>
+      <c r="K67" t="s">
+        <v>547</v>
+      </c>
+      <c r="L67" t="s">
+        <v>548</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>549</v>
+      </c>
+      <c r="O67" t="s">
+        <v>62</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>550</v>
+      </c>
+      <c r="X67" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>553</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>554</v>
+      </c>
+      <c r="J68" t="s">
+        <v>555</v>
+      </c>
+      <c r="K68" t="s">
+        <v>556</v>
+      </c>
+      <c r="L68" t="s">
+        <v>557</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>558</v>
+      </c>
+      <c r="X68" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>561</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>562</v>
+      </c>
+      <c r="J69" t="s">
+        <v>563</v>
+      </c>
+      <c r="K69" t="s">
+        <v>564</v>
+      </c>
+      <c r="L69" t="s">
+        <v>565</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>540</v>
+      </c>
+      <c r="O69" t="s">
+        <v>62</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>566</v>
+      </c>
+      <c r="X69" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>569</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>570</v>
+      </c>
+      <c r="J70" t="s">
+        <v>571</v>
+      </c>
+      <c r="K70" t="s">
+        <v>572</v>
+      </c>
+      <c r="L70" t="s">
+        <v>573</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>574</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>575</v>
+      </c>
+      <c r="X70" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>578</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>579</v>
+      </c>
+      <c r="J71" t="s">
+        <v>580</v>
+      </c>
+      <c r="K71" t="s">
+        <v>581</v>
+      </c>
+      <c r="L71" t="s">
+        <v>582</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>583</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>584</v>
+      </c>
+      <c r="X71" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>587</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>588</v>
+      </c>
+      <c r="J72" t="s">
+        <v>589</v>
+      </c>
+      <c r="K72" t="s">
+        <v>590</v>
+      </c>
+      <c r="L72" t="s">
+        <v>591</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>592</v>
+      </c>
+      <c r="O72" t="s">
+        <v>62</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>593</v>
+      </c>
+      <c r="X72" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>596</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>597</v>
+      </c>
+      <c r="J73" t="s">
+        <v>598</v>
+      </c>
+      <c r="K73" t="s">
+        <v>599</v>
+      </c>
+      <c r="L73" t="s">
+        <v>600</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>583</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>601</v>
+      </c>
+      <c r="X73" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>604</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>605</v>
+      </c>
+      <c r="J74" t="s">
+        <v>606</v>
+      </c>
+      <c r="K74" t="s">
+        <v>607</v>
+      </c>
+      <c r="L74" t="s">
+        <v>608</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>609</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>610</v>
+      </c>
+      <c r="X74" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>613</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>614</v>
+      </c>
+      <c r="J75" t="s">
+        <v>615</v>
+      </c>
+      <c r="K75" t="s">
+        <v>599</v>
+      </c>
+      <c r="L75" t="s">
+        <v>616</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>617</v>
+      </c>
+      <c r="X75" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>620</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>621</v>
+      </c>
+      <c r="J76" t="s">
+        <v>622</v>
+      </c>
+      <c r="K76" t="s">
+        <v>623</v>
+      </c>
+      <c r="L76" t="s">
+        <v>624</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>609</v>
+      </c>
+      <c r="O76" t="s">
+        <v>62</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>625</v>
+      </c>
+      <c r="X76" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>628</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>629</v>
+      </c>
+      <c r="J77" t="s">
+        <v>630</v>
+      </c>
+      <c r="K77" t="s">
+        <v>631</v>
+      </c>
+      <c r="L77" t="s">
+        <v>632</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>633</v>
+      </c>
+      <c r="O77" t="s">
+        <v>72</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>634</v>
+      </c>
+      <c r="X77" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>637</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>638</v>
+      </c>
+      <c r="J78" t="s">
+        <v>639</v>
+      </c>
+      <c r="K78" t="s">
+        <v>640</v>
+      </c>
+      <c r="L78" t="s">
+        <v>641</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>642</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>643</v>
+      </c>
+      <c r="X78" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>646</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>647</v>
+      </c>
+      <c r="J79" t="s">
+        <v>648</v>
+      </c>
+      <c r="K79" t="s">
+        <v>649</v>
+      </c>
+      <c r="L79" t="s">
+        <v>650</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>651</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>652</v>
+      </c>
+      <c r="X79" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>655</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>656</v>
+      </c>
+      <c r="J80" t="s">
+        <v>657</v>
+      </c>
+      <c r="K80" t="s">
+        <v>658</v>
+      </c>
+      <c r="L80" t="s">
+        <v>659</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>660</v>
+      </c>
+      <c r="O80" t="s">
+        <v>219</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>661</v>
+      </c>
+      <c r="X80" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>664</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>665</v>
+      </c>
+      <c r="J81" t="s">
+        <v>666</v>
+      </c>
+      <c r="K81" t="s">
+        <v>667</v>
+      </c>
+      <c r="L81" t="s">
+        <v>668</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>660</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>661</v>
+      </c>
+      <c r="X81" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>670</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>671</v>
+      </c>
+      <c r="J82" t="s">
+        <v>672</v>
+      </c>
+      <c r="K82" t="s">
+        <v>673</v>
+      </c>
+      <c r="L82" t="s">
+        <v>674</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>661</v>
+      </c>
+      <c r="X82" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>676</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>677</v>
+      </c>
+      <c r="J83" t="s">
+        <v>678</v>
+      </c>
+      <c r="K83" t="s">
+        <v>679</v>
+      </c>
+      <c r="L83" t="s">
+        <v>680</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>661</v>
+      </c>
+      <c r="X83" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>682</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>683</v>
+      </c>
+      <c r="J84" t="s">
+        <v>684</v>
+      </c>
+      <c r="K84" t="s">
+        <v>685</v>
+      </c>
+      <c r="L84" t="s">
+        <v>686</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>687</v>
+      </c>
+      <c r="O84" t="s">
+        <v>62</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>689</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>690</v>
+      </c>
+      <c r="J85" t="s">
+        <v>691</v>
+      </c>
+      <c r="K85" t="s">
+        <v>692</v>
+      </c>
+      <c r="L85" t="s">
+        <v>693</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>694</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>695</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>696</v>
+      </c>
+      <c r="J86" t="s">
+        <v>697</v>
+      </c>
+      <c r="K86" t="s">
+        <v>698</v>
+      </c>
+      <c r="L86" t="s">
+        <v>699</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>700</v>
+      </c>
+      <c r="O86" t="s">
+        <v>182</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>702</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>703</v>
+      </c>
+      <c r="J87" t="s">
+        <v>704</v>
+      </c>
+      <c r="K87" t="s">
+        <v>705</v>
+      </c>
+      <c r="L87" t="s">
+        <v>706</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>651</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>707</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>708</v>
+      </c>
+      <c r="J88" t="s">
+        <v>709</v>
+      </c>
+      <c r="K88" t="s">
+        <v>710</v>
+      </c>
+      <c r="L88" t="s">
+        <v>711</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>712</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>714</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>715</v>
+      </c>
+      <c r="J89" t="s">
+        <v>716</v>
+      </c>
+      <c r="K89" t="s">
+        <v>717</v>
+      </c>
+      <c r="L89" t="s">
+        <v>718</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>719</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>720</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>721</v>
+      </c>
+      <c r="J90" t="s">
+        <v>722</v>
+      </c>
+      <c r="K90" t="s">
+        <v>723</v>
+      </c>
+      <c r="L90" t="s">
+        <v>724</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>725</v>
+      </c>
+      <c r="O90" t="s">
+        <v>182</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>727</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>728</v>
+      </c>
+      <c r="J91" t="s">
+        <v>722</v>
+      </c>
+      <c r="K91" t="s">
+        <v>729</v>
+      </c>
+      <c r="L91" t="s">
+        <v>730</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>725</v>
+      </c>
+      <c r="O91" t="s">
+        <v>182</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>32883</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>732</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>733</v>
+      </c>
+      <c r="J92" t="s">
+        <v>734</v>
+      </c>
+      <c r="K92" t="s">
+        <v>735</v>
+      </c>
+      <c r="L92" t="s">
+        <v>736</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>737</v>
+      </c>
+      <c r="O92" t="s">
+        <v>62</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
